--- a/redemption/redemption.xlsx
+++ b/redemption/redemption.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="学习池" sheetId="1" r:id="rId1"/>
+    <sheet name="减脂" sheetId="2" r:id="rId2"/>
+    <sheet name="日期" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +20,164 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术层面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第4周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第5周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第6周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第7周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第8周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第9周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第10周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第11周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第12周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第13周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第14周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第15周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第16周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第17周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第18周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第19周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第20周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第21周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第22周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第23周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第24周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第25周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期二</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>星期日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日期 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +185,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +239,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +300,1694 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>身体变化曲线图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>减脂!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>体重</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>减脂!$B$2:$B$116</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="115"/>
+                <c:pt idx="0">
+                  <c:v>42772</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42775</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42777</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42779</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42780</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42782</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42783</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42784</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42785</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42786</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42787</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42788</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42789</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42790</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42791</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42792</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42793</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42796</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42797</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42798</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42799</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42801</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42802</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42803</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42804</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42805</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42806</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42807</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42808</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42809</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42810</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42811</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42812</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42813</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42814</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42815</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42816</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42817</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42818</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42819</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42820</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42821</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42822</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42823</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42824</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42827</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42828</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42829</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42830</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42831</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42832</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42833</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42834</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42835</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42836</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42837</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42838</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42839</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42840</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42841</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42842</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42843</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42844</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42845</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42846</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42847</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42848</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42849</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42850</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42851</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42852</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42853</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42854</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42857</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42858</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42859</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42860</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42861</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42862</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42863</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42864</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42865</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42866</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42867</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42868</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42869</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42871</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42872</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42873</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42875</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42876</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42877</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42879</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42880</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>42882</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>42883</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>42884</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42885</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>42886</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>减脂!$C$2:$C$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="115"/>
+                <c:pt idx="0">
+                  <c:v>66.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-063E-4220-99B7-54A96799DA1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>减脂!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>腰围</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>减脂!$B$2:$B$116</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="115"/>
+                <c:pt idx="0">
+                  <c:v>42772</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42775</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42777</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42779</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42780</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42782</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42783</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42784</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42785</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42786</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42787</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42788</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42789</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42790</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42791</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42792</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42793</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42796</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42797</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42798</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42799</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42801</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42802</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42803</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42804</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42805</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42806</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42807</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42808</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42809</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42810</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42811</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42812</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42813</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42814</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42815</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42816</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42817</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42818</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42819</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42820</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42821</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42822</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42823</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42824</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42827</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42828</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42829</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42830</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42831</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42832</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42833</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42834</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42835</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42836</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42837</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42838</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42839</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42840</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42841</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42842</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42843</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42844</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42845</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42846</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42847</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42848</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42849</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42850</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42851</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42852</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42853</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42854</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42857</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42858</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42859</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42860</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42861</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42862</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42863</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42864</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42865</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42866</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42867</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42868</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42869</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42871</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42872</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42873</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42875</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42876</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42877</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42879</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42880</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>42882</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>42883</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>42884</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42885</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>42886</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>减脂!$D$2:$D$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="115"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-063E-4220-99B7-54A96799DA1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="546264552"/>
+        <c:axId val="546272752"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="546264552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="546272752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="546272752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="546264552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D96CD0-29FC-46CA-BA3F-56B261032814}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,12 +2253,1836 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B5:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="74" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="8">
+        <v>42772</v>
+      </c>
+      <c r="C2" s="7">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="D2" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="8">
+        <v>42773</v>
+      </c>
+      <c r="C3" s="7">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="D3" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="8">
+        <v>42774</v>
+      </c>
+      <c r="C4" s="7">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="D4" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="8">
+        <v>42775</v>
+      </c>
+      <c r="C5" s="7">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="D5" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="8">
+        <v>42776</v>
+      </c>
+      <c r="C6" s="7">
+        <v>67.3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="8">
+        <v>42777</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="8">
+        <v>42778</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="8">
+        <v>42779</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="8">
+        <v>42780</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="8">
+        <v>42781</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="8">
+        <v>42782</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="8">
+        <v>42783</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="8">
+        <v>42784</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="8">
+        <v>42785</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="8">
+        <v>42786</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="8">
+        <v>42787</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="8">
+        <v>42788</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="8">
+        <v>42789</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="8">
+        <v>42790</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="8">
+        <v>42791</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="8">
+        <v>42792</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="8">
+        <v>42793</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="8">
+        <v>42794</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="8">
+        <v>42795</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="8">
+        <v>42796</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="8">
+        <v>42797</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="8">
+        <v>42798</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="8">
+        <v>42799</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="8">
+        <v>42800</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="8">
+        <v>42801</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="8">
+        <v>42802</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="8">
+        <v>42803</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="8">
+        <v>42804</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="8">
+        <v>42805</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="8">
+        <v>42806</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="8">
+        <v>42807</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="8">
+        <v>42808</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="8">
+        <v>42809</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="8">
+        <v>42810</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="8">
+        <v>42811</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="8">
+        <v>42812</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="8">
+        <v>42813</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="8">
+        <v>42814</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="8">
+        <v>42815</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="8">
+        <v>42816</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="8">
+        <v>42817</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="8">
+        <v>42818</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="8">
+        <v>42819</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="8">
+        <v>42820</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="8">
+        <v>42821</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="8">
+        <v>42822</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="8">
+        <v>42823</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="8">
+        <v>42824</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="8">
+        <v>42825</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="8">
+        <v>42826</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="8">
+        <v>42827</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="8">
+        <v>42828</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="8">
+        <v>42829</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="8">
+        <v>42830</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" s="8">
+        <v>42831</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="8">
+        <v>42832</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="8">
+        <v>42833</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="8">
+        <v>42834</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="8">
+        <v>42835</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="8">
+        <v>42836</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="8">
+        <v>42837</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="8">
+        <v>42838</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="8">
+        <v>42839</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="8">
+        <v>42840</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="8">
+        <v>42841</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="8">
+        <v>42842</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73" s="8">
+        <v>42843</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" s="8">
+        <v>42844</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" s="8">
+        <v>42845</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" s="8">
+        <v>42846</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" s="8">
+        <v>42847</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" s="8">
+        <v>42848</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79" s="8">
+        <v>42849</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80" s="8">
+        <v>42850</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="8">
+        <v>42851</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="8">
+        <v>42852</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="8">
+        <v>42853</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="8">
+        <v>42854</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="8">
+        <v>42855</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="8">
+        <v>42856</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B87" s="8">
+        <v>42857</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B88" s="8">
+        <v>42858</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B89" s="8">
+        <v>42859</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B90" s="8">
+        <v>42860</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B91" s="8">
+        <v>42861</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B92" s="8">
+        <v>42862</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B93" s="8">
+        <v>42863</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B94" s="8">
+        <v>42864</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B95" s="8">
+        <v>42865</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B96" s="8">
+        <v>42866</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97" s="8">
+        <v>42867</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98" s="8">
+        <v>42868</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B99" s="8">
+        <v>42869</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B100" s="8">
+        <v>42870</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B101" s="8">
+        <v>42871</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B102" s="8">
+        <v>42872</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B103" s="8">
+        <v>42873</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B104" s="8">
+        <v>42874</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B105" s="8">
+        <v>42875</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B106" s="8">
+        <v>42876</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B107" s="8">
+        <v>42877</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B108" s="8">
+        <v>42878</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B109" s="8">
+        <v>42879</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B110" s="8">
+        <v>42880</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B111" s="8">
+        <v>42881</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B112" s="8">
+        <v>42882</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B113" s="8">
+        <v>42883</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B114" s="8">
+        <v>42884</v>
+      </c>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B115" s="8">
+        <v>42885</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B116" s="8">
+        <v>42886</v>
+      </c>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:J55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="10" width="18.625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6">
+        <v>42779</v>
+      </c>
+      <c r="E6" s="6">
+        <v>42780</v>
+      </c>
+      <c r="F6" s="6">
+        <v>42781</v>
+      </c>
+      <c r="G6" s="6">
+        <v>42782</v>
+      </c>
+      <c r="H6" s="6">
+        <v>42783</v>
+      </c>
+      <c r="I6" s="6">
+        <v>42784</v>
+      </c>
+      <c r="J6" s="6">
+        <v>42785</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6">
+        <v>42786</v>
+      </c>
+      <c r="E8" s="6">
+        <v>42787</v>
+      </c>
+      <c r="F8" s="6">
+        <v>42788</v>
+      </c>
+      <c r="G8" s="6">
+        <v>42789</v>
+      </c>
+      <c r="H8" s="6">
+        <v>42790</v>
+      </c>
+      <c r="I8" s="6">
+        <v>42791</v>
+      </c>
+      <c r="J8" s="6">
+        <v>42792</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6">
+        <v>42793</v>
+      </c>
+      <c r="E10" s="6">
+        <v>42794</v>
+      </c>
+      <c r="F10" s="6">
+        <v>42795</v>
+      </c>
+      <c r="G10" s="6">
+        <v>42796</v>
+      </c>
+      <c r="H10" s="6">
+        <v>42797</v>
+      </c>
+      <c r="I10" s="6">
+        <v>42798</v>
+      </c>
+      <c r="J10" s="6">
+        <v>42799</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6">
+        <v>42800</v>
+      </c>
+      <c r="E12" s="6">
+        <v>42801</v>
+      </c>
+      <c r="F12" s="6">
+        <v>42802</v>
+      </c>
+      <c r="G12" s="6">
+        <v>42803</v>
+      </c>
+      <c r="H12" s="6">
+        <v>42804</v>
+      </c>
+      <c r="I12" s="6">
+        <v>42805</v>
+      </c>
+      <c r="J12" s="6">
+        <v>42806</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6">
+        <v>42807</v>
+      </c>
+      <c r="E14" s="6">
+        <v>42808</v>
+      </c>
+      <c r="F14" s="6">
+        <v>42809</v>
+      </c>
+      <c r="G14" s="6">
+        <v>42810</v>
+      </c>
+      <c r="H14" s="6">
+        <v>42811</v>
+      </c>
+      <c r="I14" s="6">
+        <v>42812</v>
+      </c>
+      <c r="J14" s="6">
+        <v>42813</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6">
+        <v>42814</v>
+      </c>
+      <c r="E16" s="6">
+        <v>42815</v>
+      </c>
+      <c r="F16" s="6">
+        <v>42816</v>
+      </c>
+      <c r="G16" s="6">
+        <v>42817</v>
+      </c>
+      <c r="H16" s="6">
+        <v>42818</v>
+      </c>
+      <c r="I16" s="6">
+        <v>42819</v>
+      </c>
+      <c r="J16" s="6">
+        <v>42820</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6">
+        <v>42821</v>
+      </c>
+      <c r="E18" s="6">
+        <v>42822</v>
+      </c>
+      <c r="F18" s="6">
+        <v>42823</v>
+      </c>
+      <c r="G18" s="6">
+        <v>42824</v>
+      </c>
+      <c r="H18" s="6">
+        <v>42825</v>
+      </c>
+      <c r="I18" s="6">
+        <v>42826</v>
+      </c>
+      <c r="J18" s="6">
+        <v>42827</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6">
+        <v>42828</v>
+      </c>
+      <c r="E20" s="6">
+        <v>42829</v>
+      </c>
+      <c r="F20" s="6">
+        <v>42830</v>
+      </c>
+      <c r="G20" s="6">
+        <v>42831</v>
+      </c>
+      <c r="H20" s="6">
+        <v>42832</v>
+      </c>
+      <c r="I20" s="6">
+        <v>42833</v>
+      </c>
+      <c r="J20" s="6">
+        <v>42834</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="6">
+        <v>42835</v>
+      </c>
+      <c r="E22" s="6">
+        <v>42836</v>
+      </c>
+      <c r="F22" s="6">
+        <v>42837</v>
+      </c>
+      <c r="G22" s="6">
+        <v>42838</v>
+      </c>
+      <c r="H22" s="6">
+        <v>42839</v>
+      </c>
+      <c r="I22" s="6">
+        <v>42840</v>
+      </c>
+      <c r="J22" s="6">
+        <v>42841</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="6">
+        <v>42842</v>
+      </c>
+      <c r="E24" s="6">
+        <v>42843</v>
+      </c>
+      <c r="F24" s="6">
+        <v>42844</v>
+      </c>
+      <c r="G24" s="6">
+        <v>42845</v>
+      </c>
+      <c r="H24" s="6">
+        <v>42846</v>
+      </c>
+      <c r="I24" s="6">
+        <v>42847</v>
+      </c>
+      <c r="J24" s="6">
+        <v>42848</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="6">
+        <v>42849</v>
+      </c>
+      <c r="E26" s="6">
+        <v>42850</v>
+      </c>
+      <c r="F26" s="6">
+        <v>42851</v>
+      </c>
+      <c r="G26" s="6">
+        <v>42852</v>
+      </c>
+      <c r="H26" s="6">
+        <v>42853</v>
+      </c>
+      <c r="I26" s="6">
+        <v>42854</v>
+      </c>
+      <c r="J26" s="6">
+        <v>42855</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="6">
+        <v>42856</v>
+      </c>
+      <c r="E28" s="6">
+        <v>42857</v>
+      </c>
+      <c r="F28" s="6">
+        <v>42858</v>
+      </c>
+      <c r="G28" s="6">
+        <v>42859</v>
+      </c>
+      <c r="H28" s="6">
+        <v>42860</v>
+      </c>
+      <c r="I28" s="6">
+        <v>42861</v>
+      </c>
+      <c r="J28" s="6">
+        <v>42862</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="6">
+        <v>42863</v>
+      </c>
+      <c r="E30" s="6">
+        <v>42864</v>
+      </c>
+      <c r="F30" s="6">
+        <v>42865</v>
+      </c>
+      <c r="G30" s="6">
+        <v>42866</v>
+      </c>
+      <c r="H30" s="6">
+        <v>42867</v>
+      </c>
+      <c r="I30" s="6">
+        <v>42868</v>
+      </c>
+      <c r="J30" s="6">
+        <v>42869</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="6">
+        <v>42870</v>
+      </c>
+      <c r="E32" s="6">
+        <v>42871</v>
+      </c>
+      <c r="F32" s="6">
+        <v>42872</v>
+      </c>
+      <c r="G32" s="6">
+        <v>42873</v>
+      </c>
+      <c r="H32" s="6">
+        <v>42874</v>
+      </c>
+      <c r="I32" s="6">
+        <v>42875</v>
+      </c>
+      <c r="J32" s="6">
+        <v>42876</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="6">
+        <v>42877</v>
+      </c>
+      <c r="E34" s="6">
+        <v>42878</v>
+      </c>
+      <c r="F34" s="6">
+        <v>42879</v>
+      </c>
+      <c r="G34" s="6">
+        <v>42880</v>
+      </c>
+      <c r="H34" s="6">
+        <v>42881</v>
+      </c>
+      <c r="I34" s="6">
+        <v>42882</v>
+      </c>
+      <c r="J34" s="6">
+        <v>42883</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="6">
+        <v>42884</v>
+      </c>
+      <c r="E36" s="6">
+        <v>42885</v>
+      </c>
+      <c r="F36" s="6">
+        <v>42886</v>
+      </c>
+      <c r="G36" s="6">
+        <v>42887</v>
+      </c>
+      <c r="H36" s="6">
+        <v>42888</v>
+      </c>
+      <c r="I36" s="6">
+        <v>42889</v>
+      </c>
+      <c r="J36" s="6">
+        <v>42890</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="6">
+        <v>42891</v>
+      </c>
+      <c r="E38" s="6">
+        <v>42892</v>
+      </c>
+      <c r="F38" s="6">
+        <v>42893</v>
+      </c>
+      <c r="G38" s="6">
+        <v>42894</v>
+      </c>
+      <c r="H38" s="6">
+        <v>42895</v>
+      </c>
+      <c r="I38" s="6">
+        <v>42896</v>
+      </c>
+      <c r="J38" s="6">
+        <v>42897</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="6">
+        <v>42898</v>
+      </c>
+      <c r="E40" s="6">
+        <v>42899</v>
+      </c>
+      <c r="F40" s="6">
+        <v>42900</v>
+      </c>
+      <c r="G40" s="6">
+        <v>42901</v>
+      </c>
+      <c r="H40" s="6">
+        <v>42902</v>
+      </c>
+      <c r="I40" s="6">
+        <v>42903</v>
+      </c>
+      <c r="J40" s="6">
+        <v>42904</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="6">
+        <v>42905</v>
+      </c>
+      <c r="E42" s="6">
+        <v>42906</v>
+      </c>
+      <c r="F42" s="6">
+        <v>42907</v>
+      </c>
+      <c r="G42" s="6">
+        <v>42908</v>
+      </c>
+      <c r="H42" s="6">
+        <v>42909</v>
+      </c>
+      <c r="I42" s="6">
+        <v>42910</v>
+      </c>
+      <c r="J42" s="6">
+        <v>42911</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="6">
+        <v>42912</v>
+      </c>
+      <c r="E44" s="6">
+        <v>42913</v>
+      </c>
+      <c r="F44" s="6">
+        <v>42914</v>
+      </c>
+      <c r="G44" s="6">
+        <v>42915</v>
+      </c>
+      <c r="H44" s="6">
+        <v>42916</v>
+      </c>
+      <c r="I44" s="6">
+        <v>42917</v>
+      </c>
+      <c r="J44" s="6">
+        <v>42918</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="6">
+        <v>42919</v>
+      </c>
+      <c r="E46" s="6">
+        <v>42920</v>
+      </c>
+      <c r="F46" s="6">
+        <v>42921</v>
+      </c>
+      <c r="G46" s="6">
+        <v>42922</v>
+      </c>
+      <c r="H46" s="6">
+        <v>42923</v>
+      </c>
+      <c r="I46" s="6">
+        <v>42924</v>
+      </c>
+      <c r="J46" s="6">
+        <v>42925</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="6">
+        <v>42926</v>
+      </c>
+      <c r="E48" s="6">
+        <v>42927</v>
+      </c>
+      <c r="F48" s="6">
+        <v>42928</v>
+      </c>
+      <c r="G48" s="6">
+        <v>42929</v>
+      </c>
+      <c r="H48" s="6">
+        <v>42930</v>
+      </c>
+      <c r="I48" s="6">
+        <v>42931</v>
+      </c>
+      <c r="J48" s="6">
+        <v>42932</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="6">
+        <v>42933</v>
+      </c>
+      <c r="E50" s="6">
+        <v>42934</v>
+      </c>
+      <c r="F50" s="6">
+        <v>42935</v>
+      </c>
+      <c r="G50" s="6">
+        <v>42936</v>
+      </c>
+      <c r="H50" s="6">
+        <v>42937</v>
+      </c>
+      <c r="I50" s="6">
+        <v>42938</v>
+      </c>
+      <c r="J50" s="6">
+        <v>42939</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="6">
+        <v>42940</v>
+      </c>
+      <c r="E52" s="6">
+        <v>42941</v>
+      </c>
+      <c r="F52" s="6">
+        <v>42942</v>
+      </c>
+      <c r="G52" s="6">
+        <v>42943</v>
+      </c>
+      <c r="H52" s="6">
+        <v>42944</v>
+      </c>
+      <c r="I52" s="6">
+        <v>42945</v>
+      </c>
+      <c r="J52" s="6">
+        <v>42946</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="6">
+        <v>42947</v>
+      </c>
+      <c r="E54" s="6">
+        <v>42948</v>
+      </c>
+      <c r="F54" s="6">
+        <v>42949</v>
+      </c>
+      <c r="G54" s="6">
+        <v>42950</v>
+      </c>
+      <c r="H54" s="6">
+        <v>42951</v>
+      </c>
+      <c r="I54" s="6">
+        <v>42952</v>
+      </c>
+      <c r="J54" s="6">
+        <v>42953</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/redemption/redemption.xlsx
+++ b/redemption/redemption.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="学习池" sheetId="1" r:id="rId1"/>
@@ -21,155 +21,507 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>具体条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第4周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第5周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第6周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第7周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第8周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第9周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第10周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第11周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第12周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第13周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第14周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第15周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第16周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第17周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第18周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第19周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第20周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第21周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第22周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第23周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第24周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第25周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期二</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>星期日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日期 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目开发篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志，日志管理，日志下发，崩溃日志上报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络请求(okhttp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dns解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上拉下拉分页加载, scrollview嵌套listview的处理</t>
+  </si>
+  <si>
+    <t>推送和通知栏</t>
+  </si>
+  <si>
+    <t>dialog和toast</t>
+  </si>
+  <si>
+    <t>键盘处理</t>
+  </si>
+  <si>
+    <t>通知栏　网页　启动跳转lanucher</t>
+  </si>
+  <si>
+    <t>activity恢复和启动模式</t>
+  </si>
+  <si>
+    <t>fragment的使用和坑</t>
+  </si>
+  <si>
+    <t>屏幕旋转处理</t>
+  </si>
+  <si>
+    <t>表情</t>
+  </si>
+  <si>
+    <t>IM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载和上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片加载(fresco和webp, imageloader, 系统图片资源访问，app资源文件访问)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音视频相关(音视频采集　播放)(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cocos2d动画引擎(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据持久化(数据库　文件　sharepreferences)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放器调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统广播监听，系统信息获取(deviceid 内存大小　cpu型号)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aidl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义webview webviewActivity jsbridge的使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间礼物消息优化调度策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能优化(内存 cpu )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目构建篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradle项目构建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化打包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混淆和混淆语法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置下发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mvc mvp mvvm架构设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master 和　serviceprovider serciveconsumer系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android源码篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMS(PackageManagerService)</t>
+  </si>
+  <si>
+    <t>AMS(ActivityManagerService)</t>
+  </si>
+  <si>
+    <t>WMS(WindowManagerService)</t>
+  </si>
+  <si>
+    <t>View层源码</t>
+  </si>
+  <si>
+    <t>listview</t>
+  </si>
+  <si>
+    <t>scrollview</t>
+  </si>
+  <si>
+    <t>viewpager</t>
+  </si>
+  <si>
+    <t>dialog</t>
+  </si>
+  <si>
+    <t>toast</t>
+  </si>
+  <si>
+    <t>dialogfragment</t>
+  </si>
+  <si>
+    <t>fragment</t>
+  </si>
+  <si>
+    <t>poupupwindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FragmentActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handler message looper messagequeue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binder通信机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛型和模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java并发编程实践</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java多线程库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深入理解Java虚拟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java内存回收机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java类加载机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java 性能优化实践</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强引用 、软引用、 弱引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rxjava</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rxjava和函数式编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编程基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法第四版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tcp/ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shell、Python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux和Linux常用命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git和svn代码控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>技术层面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>具体条目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第1周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第2周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第3周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第4周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第5周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第6周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第7周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第8周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第9周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第10周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第11周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第12周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第13周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第14周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第15周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第16周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第17周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第18周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第19周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第20周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第21周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第22周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第23周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第24周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第25周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期二</t>
-  </si>
-  <si>
-    <t>星期三</t>
-  </si>
-  <si>
-    <t>星期四</t>
-  </si>
-  <si>
-    <t>星期五</t>
-  </si>
-  <si>
-    <t>星期六</t>
-  </si>
-  <si>
-    <t>星期日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">日期 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腰围</t>
+    <t>deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -177,7 +529,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,8 +562,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +605,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,11 +696,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -283,6 +718,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2253,30 +2733,763 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:D5"/>
+  <dimension ref="B2:F77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="74" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="81.75" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+    <row r="2" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="E2" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="14"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="14"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="14"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="14"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="14"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="14"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="14"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="14"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="14"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="14"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="14"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="14"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="14"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="14"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="14"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="14"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="14"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="14"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="14"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="14"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="14"/>
+      <c r="C30" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="14"/>
+      <c r="C37" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="14"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="14"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="14"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="14"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="14"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="14"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="14"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="14"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="14"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="14"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="14"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="14"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="14"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="14"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="14"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+    </row>
+    <row r="53" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="17"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="17"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+    </row>
+    <row r="56" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="17"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="17"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="17"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="17"/>
+      <c r="C59" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="17"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="17"/>
+      <c r="C61" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+    </row>
+    <row r="65" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="17"/>
+      <c r="C65" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="17"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="17"/>
+      <c r="C67" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="13"/>
+      <c r="C69" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="13"/>
+      <c r="C70" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+    </row>
+    <row r="71" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="13"/>
+      <c r="C71" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="13"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="13"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+    </row>
+    <row r="75" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="12"/>
+      <c r="C75" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="12"/>
+      <c r="C76" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="12"/>
+      <c r="C77" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B53:B67"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B3:B52"/>
+    <mergeCell ref="C3:C29"/>
+    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="C37:C52"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="C65:C66"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2287,852 +3500,852 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>42772</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>66.400000000000006</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>42773</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>67.599999999999994</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>42774</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>67.599999999999994</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>42775</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>67.400000000000006</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>42776</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>67.3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>42777</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>42778</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>42779</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>42780</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>42781</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>42782</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>42783</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>42784</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>42785</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>42786</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>42787</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>42788</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>42789</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>42790</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>42791</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>42792</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>42793</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>42794</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>42795</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>42796</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>42797</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>42798</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>42799</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>42800</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>42801</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>42802</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>42803</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>42804</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>42805</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>42806</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>42807</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>42808</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>42809</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>42810</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>42811</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>42812</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>42813</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>42814</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>42815</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>42816</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>42817</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>42818</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>42819</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="8">
+      <c r="B50" s="7">
         <v>42820</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>42821</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="8">
+      <c r="B52" s="7">
         <v>42822</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="8">
+      <c r="B53" s="7">
         <v>42823</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="8">
+      <c r="B54" s="7">
         <v>42824</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="8">
+      <c r="B55" s="7">
         <v>42825</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="8">
+      <c r="B56" s="7">
         <v>42826</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="8">
+      <c r="B57" s="7">
         <v>42827</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="8">
+      <c r="B58" s="7">
         <v>42828</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="8">
+      <c r="B59" s="7">
         <v>42829</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="8">
+      <c r="B60" s="7">
         <v>42830</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B61" s="8">
+      <c r="B61" s="7">
         <v>42831</v>
       </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="8">
+      <c r="B62" s="7">
         <v>42832</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63" s="8">
+      <c r="B63" s="7">
         <v>42833</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="8">
+      <c r="B64" s="7">
         <v>42834</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B65" s="8">
+      <c r="B65" s="7">
         <v>42835</v>
       </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" s="8">
+      <c r="B66" s="7">
         <v>42836</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B67" s="8">
+      <c r="B67" s="7">
         <v>42837</v>
       </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B68" s="8">
+      <c r="B68" s="7">
         <v>42838</v>
       </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B69" s="8">
+      <c r="B69" s="7">
         <v>42839</v>
       </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="8">
+      <c r="B70" s="7">
         <v>42840</v>
       </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B71" s="8">
+      <c r="B71" s="7">
         <v>42841</v>
       </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B72" s="8">
+      <c r="B72" s="7">
         <v>42842</v>
       </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B73" s="8">
+      <c r="B73" s="7">
         <v>42843</v>
       </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B74" s="8">
+      <c r="B74" s="7">
         <v>42844</v>
       </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B75" s="8">
+      <c r="B75" s="7">
         <v>42845</v>
       </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76" s="8">
+      <c r="B76" s="7">
         <v>42846</v>
       </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B77" s="8">
+      <c r="B77" s="7">
         <v>42847</v>
       </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B78" s="8">
+      <c r="B78" s="7">
         <v>42848</v>
       </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B79" s="8">
+      <c r="B79" s="7">
         <v>42849</v>
       </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B80" s="8">
+      <c r="B80" s="7">
         <v>42850</v>
       </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B81" s="8">
+      <c r="B81" s="7">
         <v>42851</v>
       </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B82" s="8">
+      <c r="B82" s="7">
         <v>42852</v>
       </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B83" s="8">
+      <c r="B83" s="7">
         <v>42853</v>
       </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B84" s="8">
+      <c r="B84" s="7">
         <v>42854</v>
       </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B85" s="8">
+      <c r="B85" s="7">
         <v>42855</v>
       </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B86" s="8">
+      <c r="B86" s="7">
         <v>42856</v>
       </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B87" s="8">
+      <c r="B87" s="7">
         <v>42857</v>
       </c>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B88" s="8">
+      <c r="B88" s="7">
         <v>42858</v>
       </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B89" s="8">
+      <c r="B89" s="7">
         <v>42859</v>
       </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B90" s="8">
+      <c r="B90" s="7">
         <v>42860</v>
       </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B91" s="8">
+      <c r="B91" s="7">
         <v>42861</v>
       </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B92" s="8">
+      <c r="B92" s="7">
         <v>42862</v>
       </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B93" s="8">
+      <c r="B93" s="7">
         <v>42863</v>
       </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B94" s="8">
+      <c r="B94" s="7">
         <v>42864</v>
       </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B95" s="8">
+      <c r="B95" s="7">
         <v>42865</v>
       </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B96" s="8">
+      <c r="B96" s="7">
         <v>42866</v>
       </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B97" s="8">
+      <c r="B97" s="7">
         <v>42867</v>
       </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B98" s="8">
+      <c r="B98" s="7">
         <v>42868</v>
       </c>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B99" s="8">
+      <c r="B99" s="7">
         <v>42869</v>
       </c>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B100" s="8">
+      <c r="B100" s="7">
         <v>42870</v>
       </c>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B101" s="8">
+      <c r="B101" s="7">
         <v>42871</v>
       </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B102" s="8">
+      <c r="B102" s="7">
         <v>42872</v>
       </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B103" s="8">
+      <c r="B103" s="7">
         <v>42873</v>
       </c>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B104" s="8">
+      <c r="B104" s="7">
         <v>42874</v>
       </c>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B105" s="8">
+      <c r="B105" s="7">
         <v>42875</v>
       </c>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B106" s="8">
+      <c r="B106" s="7">
         <v>42876</v>
       </c>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B107" s="8">
+      <c r="B107" s="7">
         <v>42877</v>
       </c>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B108" s="8">
+      <c r="B108" s="7">
         <v>42878</v>
       </c>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B109" s="8">
+      <c r="B109" s="7">
         <v>42879</v>
       </c>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B110" s="8">
+      <c r="B110" s="7">
         <v>42880</v>
       </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B111" s="8">
+      <c r="B111" s="7">
         <v>42881</v>
       </c>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B112" s="8">
+      <c r="B112" s="7">
         <v>42882</v>
       </c>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B113" s="8">
+      <c r="B113" s="7">
         <v>42883</v>
       </c>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B114" s="8">
+      <c r="B114" s="7">
         <v>42884</v>
       </c>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B115" s="8">
+      <c r="B115" s="7">
         <v>42885</v>
       </c>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B116" s="8">
+      <c r="B116" s="7">
         <v>42886</v>
       </c>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3145,941 +4358,941 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="10" width="18.625" style="2" customWidth="1"/>
+    <col min="4" max="10" width="18.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5">
+        <v>42779</v>
+      </c>
+      <c r="E6" s="5">
+        <v>42780</v>
+      </c>
+      <c r="F6" s="5">
+        <v>42781</v>
+      </c>
+      <c r="G6" s="5">
+        <v>42782</v>
+      </c>
+      <c r="H6" s="5">
+        <v>42783</v>
+      </c>
+      <c r="I6" s="5">
+        <v>42784</v>
+      </c>
+      <c r="J6" s="5">
+        <v>42785</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6">
-        <v>42779</v>
-      </c>
-      <c r="E6" s="6">
-        <v>42780</v>
-      </c>
-      <c r="F6" s="6">
-        <v>42781</v>
-      </c>
-      <c r="G6" s="6">
-        <v>42782</v>
-      </c>
-      <c r="H6" s="6">
-        <v>42783</v>
-      </c>
-      <c r="I6" s="6">
-        <v>42784</v>
-      </c>
-      <c r="J6" s="6">
-        <v>42785</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="5">
+        <v>42786</v>
+      </c>
+      <c r="E8" s="5">
+        <v>42787</v>
+      </c>
+      <c r="F8" s="5">
+        <v>42788</v>
+      </c>
+      <c r="G8" s="5">
+        <v>42789</v>
+      </c>
+      <c r="H8" s="5">
+        <v>42790</v>
+      </c>
+      <c r="I8" s="5">
+        <v>42791</v>
+      </c>
+      <c r="J8" s="5">
+        <v>42792</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6">
-        <v>42786</v>
-      </c>
-      <c r="E8" s="6">
-        <v>42787</v>
-      </c>
-      <c r="F8" s="6">
-        <v>42788</v>
-      </c>
-      <c r="G8" s="6">
-        <v>42789</v>
-      </c>
-      <c r="H8" s="6">
-        <v>42790</v>
-      </c>
-      <c r="I8" s="6">
-        <v>42791</v>
-      </c>
-      <c r="J8" s="6">
-        <v>42792</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="5">
+        <v>42793</v>
+      </c>
+      <c r="E10" s="5">
+        <v>42794</v>
+      </c>
+      <c r="F10" s="5">
+        <v>42795</v>
+      </c>
+      <c r="G10" s="5">
+        <v>42796</v>
+      </c>
+      <c r="H10" s="5">
+        <v>42797</v>
+      </c>
+      <c r="I10" s="5">
+        <v>42798</v>
+      </c>
+      <c r="J10" s="5">
+        <v>42799</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="6">
-        <v>42793</v>
-      </c>
-      <c r="E10" s="6">
-        <v>42794</v>
-      </c>
-      <c r="F10" s="6">
-        <v>42795</v>
-      </c>
-      <c r="G10" s="6">
-        <v>42796</v>
-      </c>
-      <c r="H10" s="6">
-        <v>42797</v>
-      </c>
-      <c r="I10" s="6">
-        <v>42798</v>
-      </c>
-      <c r="J10" s="6">
-        <v>42799</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="5">
+        <v>42800</v>
+      </c>
+      <c r="E12" s="5">
+        <v>42801</v>
+      </c>
+      <c r="F12" s="5">
+        <v>42802</v>
+      </c>
+      <c r="G12" s="5">
+        <v>42803</v>
+      </c>
+      <c r="H12" s="5">
+        <v>42804</v>
+      </c>
+      <c r="I12" s="5">
+        <v>42805</v>
+      </c>
+      <c r="J12" s="5">
+        <v>42806</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="6">
-        <v>42800</v>
-      </c>
-      <c r="E12" s="6">
-        <v>42801</v>
-      </c>
-      <c r="F12" s="6">
-        <v>42802</v>
-      </c>
-      <c r="G12" s="6">
-        <v>42803</v>
-      </c>
-      <c r="H12" s="6">
-        <v>42804</v>
-      </c>
-      <c r="I12" s="6">
-        <v>42805</v>
-      </c>
-      <c r="J12" s="6">
-        <v>42806</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="5">
+        <v>42807</v>
+      </c>
+      <c r="E14" s="5">
+        <v>42808</v>
+      </c>
+      <c r="F14" s="5">
+        <v>42809</v>
+      </c>
+      <c r="G14" s="5">
+        <v>42810</v>
+      </c>
+      <c r="H14" s="5">
+        <v>42811</v>
+      </c>
+      <c r="I14" s="5">
+        <v>42812</v>
+      </c>
+      <c r="J14" s="5">
+        <v>42813</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="6">
-        <v>42807</v>
-      </c>
-      <c r="E14" s="6">
-        <v>42808</v>
-      </c>
-      <c r="F14" s="6">
-        <v>42809</v>
-      </c>
-      <c r="G14" s="6">
-        <v>42810</v>
-      </c>
-      <c r="H14" s="6">
-        <v>42811</v>
-      </c>
-      <c r="I14" s="6">
-        <v>42812</v>
-      </c>
-      <c r="J14" s="6">
-        <v>42813</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="5">
+        <v>42814</v>
+      </c>
+      <c r="E16" s="5">
+        <v>42815</v>
+      </c>
+      <c r="F16" s="5">
+        <v>42816</v>
+      </c>
+      <c r="G16" s="5">
+        <v>42817</v>
+      </c>
+      <c r="H16" s="5">
+        <v>42818</v>
+      </c>
+      <c r="I16" s="5">
+        <v>42819</v>
+      </c>
+      <c r="J16" s="5">
+        <v>42820</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="6">
-        <v>42814</v>
-      </c>
-      <c r="E16" s="6">
-        <v>42815</v>
-      </c>
-      <c r="F16" s="6">
-        <v>42816</v>
-      </c>
-      <c r="G16" s="6">
-        <v>42817</v>
-      </c>
-      <c r="H16" s="6">
-        <v>42818</v>
-      </c>
-      <c r="I16" s="6">
-        <v>42819</v>
-      </c>
-      <c r="J16" s="6">
-        <v>42820</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="5">
+        <v>42821</v>
+      </c>
+      <c r="E18" s="5">
+        <v>42822</v>
+      </c>
+      <c r="F18" s="5">
+        <v>42823</v>
+      </c>
+      <c r="G18" s="5">
+        <v>42824</v>
+      </c>
+      <c r="H18" s="5">
+        <v>42825</v>
+      </c>
+      <c r="I18" s="5">
+        <v>42826</v>
+      </c>
+      <c r="J18" s="5">
+        <v>42827</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="6">
-        <v>42821</v>
-      </c>
-      <c r="E18" s="6">
-        <v>42822</v>
-      </c>
-      <c r="F18" s="6">
-        <v>42823</v>
-      </c>
-      <c r="G18" s="6">
-        <v>42824</v>
-      </c>
-      <c r="H18" s="6">
-        <v>42825</v>
-      </c>
-      <c r="I18" s="6">
-        <v>42826</v>
-      </c>
-      <c r="J18" s="6">
-        <v>42827</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="5">
+        <v>42828</v>
+      </c>
+      <c r="E20" s="5">
+        <v>42829</v>
+      </c>
+      <c r="F20" s="5">
+        <v>42830</v>
+      </c>
+      <c r="G20" s="5">
+        <v>42831</v>
+      </c>
+      <c r="H20" s="5">
+        <v>42832</v>
+      </c>
+      <c r="I20" s="5">
+        <v>42833</v>
+      </c>
+      <c r="J20" s="5">
+        <v>42834</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="6">
-        <v>42828</v>
-      </c>
-      <c r="E20" s="6">
-        <v>42829</v>
-      </c>
-      <c r="F20" s="6">
-        <v>42830</v>
-      </c>
-      <c r="G20" s="6">
-        <v>42831</v>
-      </c>
-      <c r="H20" s="6">
-        <v>42832</v>
-      </c>
-      <c r="I20" s="6">
-        <v>42833</v>
-      </c>
-      <c r="J20" s="6">
-        <v>42834</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="5">
+        <v>42835</v>
+      </c>
+      <c r="E22" s="5">
+        <v>42836</v>
+      </c>
+      <c r="F22" s="5">
+        <v>42837</v>
+      </c>
+      <c r="G22" s="5">
+        <v>42838</v>
+      </c>
+      <c r="H22" s="5">
+        <v>42839</v>
+      </c>
+      <c r="I22" s="5">
+        <v>42840</v>
+      </c>
+      <c r="J22" s="5">
+        <v>42841</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="6">
-        <v>42835</v>
-      </c>
-      <c r="E22" s="6">
-        <v>42836</v>
-      </c>
-      <c r="F22" s="6">
-        <v>42837</v>
-      </c>
-      <c r="G22" s="6">
-        <v>42838</v>
-      </c>
-      <c r="H22" s="6">
-        <v>42839</v>
-      </c>
-      <c r="I22" s="6">
-        <v>42840</v>
-      </c>
-      <c r="J22" s="6">
-        <v>42841</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="5">
+        <v>42842</v>
+      </c>
+      <c r="E24" s="5">
+        <v>42843</v>
+      </c>
+      <c r="F24" s="5">
+        <v>42844</v>
+      </c>
+      <c r="G24" s="5">
+        <v>42845</v>
+      </c>
+      <c r="H24" s="5">
+        <v>42846</v>
+      </c>
+      <c r="I24" s="5">
+        <v>42847</v>
+      </c>
+      <c r="J24" s="5">
+        <v>42848</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="6">
-        <v>42842</v>
-      </c>
-      <c r="E24" s="6">
-        <v>42843</v>
-      </c>
-      <c r="F24" s="6">
-        <v>42844</v>
-      </c>
-      <c r="G24" s="6">
-        <v>42845</v>
-      </c>
-      <c r="H24" s="6">
-        <v>42846</v>
-      </c>
-      <c r="I24" s="6">
-        <v>42847</v>
-      </c>
-      <c r="J24" s="6">
-        <v>42848</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="5">
+        <v>42849</v>
+      </c>
+      <c r="E26" s="5">
+        <v>42850</v>
+      </c>
+      <c r="F26" s="5">
+        <v>42851</v>
+      </c>
+      <c r="G26" s="5">
+        <v>42852</v>
+      </c>
+      <c r="H26" s="5">
+        <v>42853</v>
+      </c>
+      <c r="I26" s="5">
+        <v>42854</v>
+      </c>
+      <c r="J26" s="5">
+        <v>42855</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="6">
-        <v>42849</v>
-      </c>
-      <c r="E26" s="6">
-        <v>42850</v>
-      </c>
-      <c r="F26" s="6">
-        <v>42851</v>
-      </c>
-      <c r="G26" s="6">
-        <v>42852</v>
-      </c>
-      <c r="H26" s="6">
-        <v>42853</v>
-      </c>
-      <c r="I26" s="6">
-        <v>42854</v>
-      </c>
-      <c r="J26" s="6">
-        <v>42855</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="5">
+        <v>42856</v>
+      </c>
+      <c r="E28" s="5">
+        <v>42857</v>
+      </c>
+      <c r="F28" s="5">
+        <v>42858</v>
+      </c>
+      <c r="G28" s="5">
+        <v>42859</v>
+      </c>
+      <c r="H28" s="5">
+        <v>42860</v>
+      </c>
+      <c r="I28" s="5">
+        <v>42861</v>
+      </c>
+      <c r="J28" s="5">
+        <v>42862</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="6">
-        <v>42856</v>
-      </c>
-      <c r="E28" s="6">
-        <v>42857</v>
-      </c>
-      <c r="F28" s="6">
-        <v>42858</v>
-      </c>
-      <c r="G28" s="6">
-        <v>42859</v>
-      </c>
-      <c r="H28" s="6">
-        <v>42860</v>
-      </c>
-      <c r="I28" s="6">
-        <v>42861</v>
-      </c>
-      <c r="J28" s="6">
-        <v>42862</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="5">
+        <v>42863</v>
+      </c>
+      <c r="E30" s="5">
+        <v>42864</v>
+      </c>
+      <c r="F30" s="5">
+        <v>42865</v>
+      </c>
+      <c r="G30" s="5">
+        <v>42866</v>
+      </c>
+      <c r="H30" s="5">
+        <v>42867</v>
+      </c>
+      <c r="I30" s="5">
+        <v>42868</v>
+      </c>
+      <c r="J30" s="5">
+        <v>42869</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="6">
-        <v>42863</v>
-      </c>
-      <c r="E30" s="6">
-        <v>42864</v>
-      </c>
-      <c r="F30" s="6">
-        <v>42865</v>
-      </c>
-      <c r="G30" s="6">
-        <v>42866</v>
-      </c>
-      <c r="H30" s="6">
-        <v>42867</v>
-      </c>
-      <c r="I30" s="6">
-        <v>42868</v>
-      </c>
-      <c r="J30" s="6">
-        <v>42869</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="5">
+        <v>42870</v>
+      </c>
+      <c r="E32" s="5">
+        <v>42871</v>
+      </c>
+      <c r="F32" s="5">
+        <v>42872</v>
+      </c>
+      <c r="G32" s="5">
+        <v>42873</v>
+      </c>
+      <c r="H32" s="5">
+        <v>42874</v>
+      </c>
+      <c r="I32" s="5">
+        <v>42875</v>
+      </c>
+      <c r="J32" s="5">
+        <v>42876</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="6">
-        <v>42870</v>
-      </c>
-      <c r="E32" s="6">
-        <v>42871</v>
-      </c>
-      <c r="F32" s="6">
-        <v>42872</v>
-      </c>
-      <c r="G32" s="6">
-        <v>42873</v>
-      </c>
-      <c r="H32" s="6">
-        <v>42874</v>
-      </c>
-      <c r="I32" s="6">
-        <v>42875</v>
-      </c>
-      <c r="J32" s="6">
-        <v>42876</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="5">
+        <v>42877</v>
+      </c>
+      <c r="E34" s="5">
+        <v>42878</v>
+      </c>
+      <c r="F34" s="5">
+        <v>42879</v>
+      </c>
+      <c r="G34" s="5">
+        <v>42880</v>
+      </c>
+      <c r="H34" s="5">
+        <v>42881</v>
+      </c>
+      <c r="I34" s="5">
+        <v>42882</v>
+      </c>
+      <c r="J34" s="5">
+        <v>42883</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="6">
-        <v>42877</v>
-      </c>
-      <c r="E34" s="6">
-        <v>42878</v>
-      </c>
-      <c r="F34" s="6">
-        <v>42879</v>
-      </c>
-      <c r="G34" s="6">
-        <v>42880</v>
-      </c>
-      <c r="H34" s="6">
-        <v>42881</v>
-      </c>
-      <c r="I34" s="6">
-        <v>42882</v>
-      </c>
-      <c r="J34" s="6">
-        <v>42883</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="5">
+        <v>42884</v>
+      </c>
+      <c r="E36" s="5">
+        <v>42885</v>
+      </c>
+      <c r="F36" s="5">
+        <v>42886</v>
+      </c>
+      <c r="G36" s="5">
+        <v>42887</v>
+      </c>
+      <c r="H36" s="5">
+        <v>42888</v>
+      </c>
+      <c r="I36" s="5">
+        <v>42889</v>
+      </c>
+      <c r="J36" s="5">
+        <v>42890</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="6">
-        <v>42884</v>
-      </c>
-      <c r="E36" s="6">
-        <v>42885</v>
-      </c>
-      <c r="F36" s="6">
-        <v>42886</v>
-      </c>
-      <c r="G36" s="6">
-        <v>42887</v>
-      </c>
-      <c r="H36" s="6">
-        <v>42888</v>
-      </c>
-      <c r="I36" s="6">
-        <v>42889</v>
-      </c>
-      <c r="J36" s="6">
-        <v>42890</v>
-      </c>
-    </row>
-    <row r="37" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="5">
+        <v>42891</v>
+      </c>
+      <c r="E38" s="5">
+        <v>42892</v>
+      </c>
+      <c r="F38" s="5">
+        <v>42893</v>
+      </c>
+      <c r="G38" s="5">
+        <v>42894</v>
+      </c>
+      <c r="H38" s="5">
+        <v>42895</v>
+      </c>
+      <c r="I38" s="5">
+        <v>42896</v>
+      </c>
+      <c r="J38" s="5">
+        <v>42897</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="6">
-        <v>42891</v>
-      </c>
-      <c r="E38" s="6">
-        <v>42892</v>
-      </c>
-      <c r="F38" s="6">
-        <v>42893</v>
-      </c>
-      <c r="G38" s="6">
-        <v>42894</v>
-      </c>
-      <c r="H38" s="6">
-        <v>42895</v>
-      </c>
-      <c r="I38" s="6">
-        <v>42896</v>
-      </c>
-      <c r="J38" s="6">
-        <v>42897</v>
-      </c>
-    </row>
-    <row r="39" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="5">
+        <v>42898</v>
+      </c>
+      <c r="E40" s="5">
+        <v>42899</v>
+      </c>
+      <c r="F40" s="5">
+        <v>42900</v>
+      </c>
+      <c r="G40" s="5">
+        <v>42901</v>
+      </c>
+      <c r="H40" s="5">
+        <v>42902</v>
+      </c>
+      <c r="I40" s="5">
+        <v>42903</v>
+      </c>
+      <c r="J40" s="5">
+        <v>42904</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="6">
-        <v>42898</v>
-      </c>
-      <c r="E40" s="6">
-        <v>42899</v>
-      </c>
-      <c r="F40" s="6">
-        <v>42900</v>
-      </c>
-      <c r="G40" s="6">
-        <v>42901</v>
-      </c>
-      <c r="H40" s="6">
-        <v>42902</v>
-      </c>
-      <c r="I40" s="6">
-        <v>42903</v>
-      </c>
-      <c r="J40" s="6">
-        <v>42904</v>
-      </c>
-    </row>
-    <row r="41" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="3"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="5">
+        <v>42905</v>
+      </c>
+      <c r="E42" s="5">
+        <v>42906</v>
+      </c>
+      <c r="F42" s="5">
+        <v>42907</v>
+      </c>
+      <c r="G42" s="5">
+        <v>42908</v>
+      </c>
+      <c r="H42" s="5">
+        <v>42909</v>
+      </c>
+      <c r="I42" s="5">
+        <v>42910</v>
+      </c>
+      <c r="J42" s="5">
+        <v>42911</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="2"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="6">
-        <v>42905</v>
-      </c>
-      <c r="E42" s="6">
-        <v>42906</v>
-      </c>
-      <c r="F42" s="6">
-        <v>42907</v>
-      </c>
-      <c r="G42" s="6">
-        <v>42908</v>
-      </c>
-      <c r="H42" s="6">
-        <v>42909</v>
-      </c>
-      <c r="I42" s="6">
-        <v>42910</v>
-      </c>
-      <c r="J42" s="6">
-        <v>42911</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="5">
+        <v>42912</v>
+      </c>
+      <c r="E44" s="5">
+        <v>42913</v>
+      </c>
+      <c r="F44" s="5">
+        <v>42914</v>
+      </c>
+      <c r="G44" s="5">
+        <v>42915</v>
+      </c>
+      <c r="H44" s="5">
+        <v>42916</v>
+      </c>
+      <c r="I44" s="5">
+        <v>42917</v>
+      </c>
+      <c r="J44" s="5">
+        <v>42918</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="2"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="6">
-        <v>42912</v>
-      </c>
-      <c r="E44" s="6">
-        <v>42913</v>
-      </c>
-      <c r="F44" s="6">
-        <v>42914</v>
-      </c>
-      <c r="G44" s="6">
-        <v>42915</v>
-      </c>
-      <c r="H44" s="6">
-        <v>42916</v>
-      </c>
-      <c r="I44" s="6">
-        <v>42917</v>
-      </c>
-      <c r="J44" s="6">
-        <v>42918</v>
-      </c>
-    </row>
-    <row r="45" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="3"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="5">
+        <v>42919</v>
+      </c>
+      <c r="E46" s="5">
+        <v>42920</v>
+      </c>
+      <c r="F46" s="5">
+        <v>42921</v>
+      </c>
+      <c r="G46" s="5">
+        <v>42922</v>
+      </c>
+      <c r="H46" s="5">
+        <v>42923</v>
+      </c>
+      <c r="I46" s="5">
+        <v>42924</v>
+      </c>
+      <c r="J46" s="5">
+        <v>42925</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="2"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="6">
-        <v>42919</v>
-      </c>
-      <c r="E46" s="6">
-        <v>42920</v>
-      </c>
-      <c r="F46" s="6">
-        <v>42921</v>
-      </c>
-      <c r="G46" s="6">
-        <v>42922</v>
-      </c>
-      <c r="H46" s="6">
-        <v>42923</v>
-      </c>
-      <c r="I46" s="6">
-        <v>42924</v>
-      </c>
-      <c r="J46" s="6">
-        <v>42925</v>
-      </c>
-    </row>
-    <row r="47" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="3"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-    </row>
-    <row r="48" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="5">
+        <v>42926</v>
+      </c>
+      <c r="E48" s="5">
+        <v>42927</v>
+      </c>
+      <c r="F48" s="5">
+        <v>42928</v>
+      </c>
+      <c r="G48" s="5">
+        <v>42929</v>
+      </c>
+      <c r="H48" s="5">
+        <v>42930</v>
+      </c>
+      <c r="I48" s="5">
+        <v>42931</v>
+      </c>
+      <c r="J48" s="5">
+        <v>42932</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="2"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="6">
-        <v>42926</v>
-      </c>
-      <c r="E48" s="6">
-        <v>42927</v>
-      </c>
-      <c r="F48" s="6">
-        <v>42928</v>
-      </c>
-      <c r="G48" s="6">
-        <v>42929</v>
-      </c>
-      <c r="H48" s="6">
-        <v>42930</v>
-      </c>
-      <c r="I48" s="6">
-        <v>42931</v>
-      </c>
-      <c r="J48" s="6">
-        <v>42932</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="3"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-    </row>
-    <row r="50" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="5">
+        <v>42933</v>
+      </c>
+      <c r="E50" s="5">
+        <v>42934</v>
+      </c>
+      <c r="F50" s="5">
+        <v>42935</v>
+      </c>
+      <c r="G50" s="5">
+        <v>42936</v>
+      </c>
+      <c r="H50" s="5">
+        <v>42937</v>
+      </c>
+      <c r="I50" s="5">
+        <v>42938</v>
+      </c>
+      <c r="J50" s="5">
+        <v>42939</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="2"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="6">
-        <v>42933</v>
-      </c>
-      <c r="E50" s="6">
-        <v>42934</v>
-      </c>
-      <c r="F50" s="6">
-        <v>42935</v>
-      </c>
-      <c r="G50" s="6">
-        <v>42936</v>
-      </c>
-      <c r="H50" s="6">
-        <v>42937</v>
-      </c>
-      <c r="I50" s="6">
-        <v>42938</v>
-      </c>
-      <c r="J50" s="6">
-        <v>42939</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="5">
+        <v>42940</v>
+      </c>
+      <c r="E52" s="5">
+        <v>42941</v>
+      </c>
+      <c r="F52" s="5">
+        <v>42942</v>
+      </c>
+      <c r="G52" s="5">
+        <v>42943</v>
+      </c>
+      <c r="H52" s="5">
+        <v>42944</v>
+      </c>
+      <c r="I52" s="5">
+        <v>42945</v>
+      </c>
+      <c r="J52" s="5">
+        <v>42946</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="2"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="6">
-        <v>42940</v>
-      </c>
-      <c r="E52" s="6">
-        <v>42941</v>
-      </c>
-      <c r="F52" s="6">
-        <v>42942</v>
-      </c>
-      <c r="G52" s="6">
-        <v>42943</v>
-      </c>
-      <c r="H52" s="6">
-        <v>42944</v>
-      </c>
-      <c r="I52" s="6">
-        <v>42945</v>
-      </c>
-      <c r="J52" s="6">
-        <v>42946</v>
-      </c>
-    </row>
-    <row r="53" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="3"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <v>42947</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>42948</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="5">
         <v>42949</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="5">
         <v>42950</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="5">
         <v>42951</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54" s="5">
         <v>42952</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="5">
         <v>42953</v>
       </c>
     </row>
     <row r="55" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="3"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/redemption/redemption.xlsx
+++ b/redemption/redemption.xlsx
@@ -589,7 +589,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -668,8 +668,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -692,11 +698,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -723,16 +746,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -744,26 +776,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1258,6 +1284,21 @@
                 <c:pt idx="4">
                   <c:v>67.3</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1668,6 +1709,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2735,8 +2791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F77"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2750,27 +2806,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -2780,8 +2836,8 @@
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="14"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="9" t="s">
         <v>41</v>
       </c>
@@ -2789,8 +2845,8 @@
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="14"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="9" t="s">
         <v>42</v>
       </c>
@@ -2798,8 +2854,8 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="14"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="9" t="s">
         <v>43</v>
       </c>
@@ -2807,8 +2863,8 @@
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="14"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="9" t="s">
         <v>44</v>
       </c>
@@ -2816,8 +2872,8 @@
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="14"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="9" t="s">
         <v>45</v>
       </c>
@@ -2825,8 +2881,8 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="14"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="9" t="s">
         <v>46</v>
       </c>
@@ -2834,8 +2890,8 @@
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="14"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="9" t="s">
         <v>47</v>
       </c>
@@ -2843,8 +2899,8 @@
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="14"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="9" t="s">
         <v>48</v>
       </c>
@@ -2852,8 +2908,8 @@
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="9" t="s">
         <v>49</v>
       </c>
@@ -2861,8 +2917,8 @@
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="14"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="9" t="s">
         <v>50</v>
       </c>
@@ -2870,8 +2926,8 @@
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="14"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="9" t="s">
         <v>51</v>
       </c>
@@ -2879,8 +2935,8 @@
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="14"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="9" t="s">
         <v>52</v>
       </c>
@@ -2888,8 +2944,8 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="14"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="9" t="s">
         <v>53</v>
       </c>
@@ -2897,8 +2953,8 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="14"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="9" t="s">
         <v>54</v>
       </c>
@@ -2906,8 +2962,8 @@
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="14"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="9" t="s">
         <v>55</v>
       </c>
@@ -2915,8 +2971,8 @@
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="14"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="9" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +2980,8 @@
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="14"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="9" t="s">
         <v>57</v>
       </c>
@@ -2933,8 +2989,8 @@
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="14"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="9" t="s">
         <v>58</v>
       </c>
@@ -2942,8 +2998,8 @@
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="14"/>
-      <c r="C22" s="13"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="9" t="s">
         <v>59</v>
       </c>
@@ -2951,8 +3007,8 @@
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="14"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="9" t="s">
         <v>60</v>
       </c>
@@ -2960,8 +3016,8 @@
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="14"/>
-      <c r="C24" s="13"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="9" t="s">
         <v>61</v>
       </c>
@@ -2969,8 +3025,8 @@
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="14"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="9" t="s">
         <v>62</v>
       </c>
@@ -2978,8 +3034,8 @@
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="14"/>
-      <c r="C26" s="13"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="9" t="s">
         <v>63</v>
       </c>
@@ -2987,8 +3043,8 @@
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="14"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="9" t="s">
         <v>64</v>
       </c>
@@ -2996,8 +3052,8 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="14"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="9" t="s">
         <v>65</v>
       </c>
@@ -3005,8 +3061,8 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="14"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="9" t="s">
         <v>66</v>
       </c>
@@ -3014,8 +3070,8 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="14"/>
-      <c r="C30" s="15" t="s">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="9" t="s">
@@ -3025,8 +3081,8 @@
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="9" t="s">
         <v>69</v>
       </c>
@@ -3034,8 +3090,8 @@
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="9" t="s">
         <v>70</v>
       </c>
@@ -3043,8 +3099,8 @@
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="9" t="s">
         <v>71</v>
       </c>
@@ -3052,8 +3108,8 @@
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="9" t="s">
         <v>72</v>
       </c>
@@ -3061,8 +3117,8 @@
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="9" t="s">
         <v>73</v>
       </c>
@@ -3070,8 +3126,8 @@
       <c r="F35" s="9"/>
     </row>
     <row r="36" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="9" t="s">
         <v>74</v>
       </c>
@@ -3079,8 +3135,8 @@
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="14"/>
-      <c r="C37" s="16" t="s">
+      <c r="B37" s="17"/>
+      <c r="C37" s="19" t="s">
         <v>75</v>
       </c>
       <c r="D37" s="9" t="s">
@@ -3090,8 +3146,8 @@
       <c r="F37" s="9"/>
     </row>
     <row r="38" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="14"/>
-      <c r="C38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="9" t="s">
         <v>77</v>
       </c>
@@ -3099,8 +3155,8 @@
       <c r="F38" s="9"/>
     </row>
     <row r="39" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="14"/>
-      <c r="C39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="9" t="s">
         <v>78</v>
       </c>
@@ -3108,8 +3164,8 @@
       <c r="F39" s="9"/>
     </row>
     <row r="40" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="14"/>
-      <c r="C40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="19"/>
       <c r="D40" s="9" t="s">
         <v>79</v>
       </c>
@@ -3117,8 +3173,8 @@
       <c r="F40" s="9"/>
     </row>
     <row r="41" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="14"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="9" t="s">
         <v>80</v>
       </c>
@@ -3126,8 +3182,8 @@
       <c r="F41" s="9"/>
     </row>
     <row r="42" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="14"/>
-      <c r="C42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="9" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3191,8 @@
       <c r="F42" s="9"/>
     </row>
     <row r="43" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="14"/>
-      <c r="C43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="9" t="s">
         <v>82</v>
       </c>
@@ -3144,8 +3200,8 @@
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="14"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="9" t="s">
         <v>83</v>
       </c>
@@ -3153,8 +3209,8 @@
       <c r="F44" s="9"/>
     </row>
     <row r="45" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="14"/>
-      <c r="C45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="9" t="s">
         <v>84</v>
       </c>
@@ -3162,8 +3218,8 @@
       <c r="F45" s="9"/>
     </row>
     <row r="46" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="14"/>
-      <c r="C46" s="16"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="9" t="s">
         <v>85</v>
       </c>
@@ -3171,8 +3227,8 @@
       <c r="F46" s="9"/>
     </row>
     <row r="47" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="14"/>
-      <c r="C47" s="16"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="19"/>
       <c r="D47" s="9" t="s">
         <v>86</v>
       </c>
@@ -3180,8 +3236,8 @@
       <c r="F47" s="9"/>
     </row>
     <row r="48" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="14"/>
-      <c r="C48" s="16"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="19"/>
       <c r="D48" s="9" t="s">
         <v>87</v>
       </c>
@@ -3189,8 +3245,8 @@
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="14"/>
-      <c r="C49" s="16"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="9" t="s">
         <v>88</v>
       </c>
@@ -3198,8 +3254,8 @@
       <c r="F49" s="9"/>
     </row>
     <row r="50" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="14"/>
-      <c r="C50" s="16"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="9" t="s">
         <v>89</v>
       </c>
@@ -3207,8 +3263,8 @@
       <c r="F50" s="9"/>
     </row>
     <row r="51" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="14"/>
-      <c r="C51" s="16"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="9" t="s">
         <v>90</v>
       </c>
@@ -3216,8 +3272,8 @@
       <c r="F51" s="9"/>
     </row>
     <row r="52" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="14"/>
-      <c r="C52" s="16"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="9" t="s">
         <v>91</v>
       </c>
@@ -3225,10 +3281,10 @@
       <c r="F52" s="9"/>
     </row>
     <row r="53" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="20" t="s">
         <v>93</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -3238,8 +3294,8 @@
       <c r="F53" s="9"/>
     </row>
     <row r="54" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="17"/>
-      <c r="C54" s="19"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="20"/>
       <c r="D54" s="9" t="s">
         <v>94</v>
       </c>
@@ -3247,8 +3303,8 @@
       <c r="F54" s="9"/>
     </row>
     <row r="55" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="17"/>
-      <c r="C55" s="19"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="20"/>
       <c r="D55" s="9" t="s">
         <v>96</v>
       </c>
@@ -3256,8 +3312,8 @@
       <c r="F55" s="9"/>
     </row>
     <row r="56" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="17"/>
-      <c r="C56" s="19"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="9" t="s">
         <v>97</v>
       </c>
@@ -3265,8 +3321,8 @@
       <c r="F56" s="9"/>
     </row>
     <row r="57" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="17"/>
-      <c r="C57" s="19"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="9" t="s">
         <v>91</v>
       </c>
@@ -3274,8 +3330,8 @@
       <c r="F57" s="9"/>
     </row>
     <row r="58" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="17"/>
-      <c r="C58" s="19"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="9" t="s">
         <v>98</v>
       </c>
@@ -3283,7 +3339,7 @@
       <c r="F58" s="9"/>
     </row>
     <row r="59" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="17"/>
+      <c r="B59" s="13"/>
       <c r="C59" s="21" t="s">
         <v>99</v>
       </c>
@@ -3294,7 +3350,7 @@
       <c r="F59" s="9"/>
     </row>
     <row r="60" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="17"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="21"/>
       <c r="D60" s="9" t="s">
         <v>101</v>
@@ -3303,8 +3359,8 @@
       <c r="F60" s="9"/>
     </row>
     <row r="61" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="17"/>
-      <c r="C61" s="18" t="s">
+      <c r="B61" s="13"/>
+      <c r="C61" s="22" t="s">
         <v>105</v>
       </c>
       <c r="D61" s="9" t="s">
@@ -3314,8 +3370,8 @@
       <c r="F61" s="9"/>
     </row>
     <row r="62" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="22"/>
       <c r="D62" s="9" t="s">
         <v>103</v>
       </c>
@@ -3323,8 +3379,8 @@
       <c r="F62" s="9"/>
     </row>
     <row r="63" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="22"/>
       <c r="D63" s="9" t="s">
         <v>109</v>
       </c>
@@ -3332,8 +3388,8 @@
       <c r="F63" s="9"/>
     </row>
     <row r="64" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="9" t="s">
         <v>104</v>
       </c>
@@ -3341,8 +3397,8 @@
       <c r="F64" s="9"/>
     </row>
     <row r="65" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="17"/>
-      <c r="C65" s="20" t="s">
+      <c r="B65" s="13"/>
+      <c r="C65" s="23" t="s">
         <v>108</v>
       </c>
       <c r="D65" s="9" t="s">
@@ -3352,8 +3408,8 @@
       <c r="F65" s="9"/>
     </row>
     <row r="66" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="17"/>
-      <c r="C66" s="20"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="23"/>
       <c r="D66" s="9" t="s">
         <v>107</v>
       </c>
@@ -3361,8 +3417,8 @@
       <c r="F66" s="9"/>
     </row>
     <row r="67" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="17"/>
-      <c r="C67" s="22" t="s">
+      <c r="B67" s="13"/>
+      <c r="C67" s="11" t="s">
         <v>110</v>
       </c>
       <c r="D67" s="9" t="s">
@@ -3372,10 +3428,10 @@
       <c r="F67" s="9"/>
     </row>
     <row r="68" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C68" s="12" t="s">
         <v>113</v>
       </c>
       <c r="D68" s="9"/>
@@ -3383,8 +3439,8 @@
       <c r="F68" s="9"/>
     </row>
     <row r="69" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="13"/>
-      <c r="C69" s="23" t="s">
+      <c r="B69" s="15"/>
+      <c r="C69" s="12" t="s">
         <v>114</v>
       </c>
       <c r="D69" s="9"/>
@@ -3392,8 +3448,8 @@
       <c r="F69" s="9"/>
     </row>
     <row r="70" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="13"/>
-      <c r="C70" s="23" t="s">
+      <c r="B70" s="15"/>
+      <c r="C70" s="12" t="s">
         <v>115</v>
       </c>
       <c r="D70" s="9"/>
@@ -3401,8 +3457,8 @@
       <c r="F70" s="9"/>
     </row>
     <row r="71" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="13"/>
-      <c r="C71" s="10" t="s">
+      <c r="B71" s="15"/>
+      <c r="C71" s="14" t="s">
         <v>116</v>
       </c>
       <c r="D71" s="9" t="s">
@@ -3412,8 +3468,8 @@
       <c r="F71" s="9"/>
     </row>
     <row r="72" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="13"/>
-      <c r="C72" s="10"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="14"/>
       <c r="D72" s="9" t="s">
         <v>118</v>
       </c>
@@ -3421,8 +3477,8 @@
       <c r="F72" s="9"/>
     </row>
     <row r="73" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="13"/>
-      <c r="C73" s="10"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="14"/>
       <c r="D73" s="9" t="s">
         <v>119</v>
       </c>
@@ -3430,10 +3486,10 @@
       <c r="F73" s="9"/>
     </row>
     <row r="74" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C74" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D74" s="9" t="s">
@@ -3443,8 +3499,8 @@
       <c r="F74" s="9"/>
     </row>
     <row r="75" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="12"/>
-      <c r="C75" s="23" t="s">
+      <c r="B75" s="16"/>
+      <c r="C75" s="12" t="s">
         <v>122</v>
       </c>
       <c r="D75" s="9" t="s">
@@ -3454,8 +3510,8 @@
       <c r="F75" s="9"/>
     </row>
     <row r="76" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="12"/>
-      <c r="C76" s="23" t="s">
+      <c r="B76" s="16"/>
+      <c r="C76" s="12" t="s">
         <v>123</v>
       </c>
       <c r="D76" s="9" t="s">
@@ -3465,8 +3521,8 @@
       <c r="F76" s="9"/>
     </row>
     <row r="77" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="12"/>
-      <c r="C77" s="23" t="s">
+      <c r="B77" s="16"/>
+      <c r="C77" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D77" s="9" t="s">
@@ -3501,7 +3557,7 @@
   <dimension ref="B1:D116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3581,36 +3637,56 @@
       <c r="B7" s="7">
         <v>42777</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="6">
+        <v>68</v>
+      </c>
+      <c r="D7" s="6">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
         <v>42778</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="6">
+        <v>68.8</v>
+      </c>
+      <c r="D8" s="6">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
         <v>42779</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="6">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="D9" s="6">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
         <v>42780</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="C10" s="6">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="D10" s="6">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
         <v>42781</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="6">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="D11" s="6">
+        <v>77.5</v>
+      </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
@@ -4350,7 +4426,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4359,7 +4436,7 @@
   <dimension ref="C5:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4422,9 +4499,9 @@
     </row>
     <row r="7" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>

--- a/redemption/redemption.xlsx
+++ b/redemption/redemption.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="184">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -514,6 +514,271 @@
   </si>
   <si>
     <t>eventbus事件通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第4周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第5周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第6周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第7周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第8周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第9周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第10周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第11周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第12周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第15周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第14周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第13周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第16周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第17周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第18周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第19周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第20周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第21周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第22周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第23周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java核心思想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java 多线程编程实践</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java性能优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法第四版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图解http</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android性能优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目开发内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术学习内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Java数据类型和集合
+2.、Java集合、IO、反射
+4、dns解析
+5、屏幕旋转处理
+6、键盘处理
+7、日志
+8、第三方登录和分享
+9、通知栏启动跳转launcher
+10、系统广播监听、信息获取
+11、webview jsbridge
+12、eventbus事件通知
+13、混淆和混淆语法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java多线程并发编程实践
+Java多线程库
+Java多线程
+ActivityManagerService
+handler messagequeue looper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5.ActivityManagerService
+8、fragment的使用和坑
+9、activity的恢复和启动模式
+10、android多线程解决方案
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">深入理解Android源码3
+fragment 源码和使用
+android布局 绘制 事件传递 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">图解http
+wms view层源码 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2、图片加载
+3、IM
+4.okhttp 网络请求
+dialog 
+dialogfragment 
+toast 
+poupupwindow
+listview 
+scrollview 
+viewpager
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、深入理解Java虚拟机
+2、Java内存回收机制
+3、java类加载机制
+4. 强引用、弱引用、软引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+5、binder通信机制
+6、aidl
+7、jni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java性能优化
+android性能优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、 泛型和模板
+2、rxjava和函数式编程
+3、effective java
+6、cocos2d动画引擎
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2、Android数据持久化
+3、数据库
+4、android项目构建篇章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android开发艺术探索
+算法第四版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +932,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -707,11 +972,48 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -741,6 +1043,25 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -773,6 +1094,57 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1054,17 +1426,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F78"/>
+  <dimension ref="B2:F92"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="27.75" customWidth="1"/>
     <col min="4" max="4" width="81.75" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="6" max="6" width="16.625" customWidth="1"/>
@@ -1088,10 +1460,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1101,8 +1473,8 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="15"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="6" t="s">
         <v>38</v>
       </c>
@@ -1110,8 +1482,8 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="15"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="6" t="s">
         <v>39</v>
       </c>
@@ -1119,8 +1491,8 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="15"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="6" t="s">
         <v>40</v>
       </c>
@@ -1128,8 +1500,8 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="15"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="6" t="s">
         <v>41</v>
       </c>
@@ -1137,8 +1509,8 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="15"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="6" t="s">
         <v>42</v>
       </c>
@@ -1146,8 +1518,8 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="15"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="6" t="s">
         <v>43</v>
       </c>
@@ -1155,8 +1527,8 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="15"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="6" t="s">
         <v>44</v>
       </c>
@@ -1164,8 +1536,8 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="6" t="s">
         <v>45</v>
       </c>
@@ -1173,8 +1545,8 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="15"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="6" t="s">
         <v>46</v>
       </c>
@@ -1182,8 +1554,8 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="15"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="6" t="s">
         <v>47</v>
       </c>
@@ -1191,8 +1563,8 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="15"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="6" t="s">
         <v>48</v>
       </c>
@@ -1200,8 +1572,8 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="15"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="6" t="s">
         <v>49</v>
       </c>
@@ -1209,8 +1581,8 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="15"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="6" t="s">
         <v>50</v>
       </c>
@@ -1218,8 +1590,8 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="15"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="6" t="s">
         <v>51</v>
       </c>
@@ -1227,8 +1599,8 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="15"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="6" t="s">
         <v>52</v>
       </c>
@@ -1236,8 +1608,8 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="15"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="6" t="s">
         <v>53</v>
       </c>
@@ -1245,8 +1617,8 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="15"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="6" t="s">
         <v>54</v>
       </c>
@@ -1254,8 +1626,8 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="15"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="6" t="s">
         <v>55</v>
       </c>
@@ -1263,8 +1635,8 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="15"/>
-      <c r="C22" s="13"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="6" t="s">
         <v>56</v>
       </c>
@@ -1272,8 +1644,8 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="15"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="6" t="s">
         <v>57</v>
       </c>
@@ -1281,8 +1653,8 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="15"/>
-      <c r="C24" s="13"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="6" t="s">
         <v>58</v>
       </c>
@@ -1290,8 +1662,8 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="15"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="6" t="s">
         <v>59</v>
       </c>
@@ -1299,8 +1671,8 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="15"/>
-      <c r="C26" s="13"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="6" t="s">
         <v>60</v>
       </c>
@@ -1308,8 +1680,8 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="15"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="6" t="s">
         <v>61</v>
       </c>
@@ -1317,8 +1689,8 @@
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="15"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="6" t="s">
         <v>62</v>
       </c>
@@ -1326,8 +1698,8 @@
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="15"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="6" t="s">
         <v>129</v>
       </c>
@@ -1335,8 +1707,8 @@
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="15"/>
-      <c r="C30" s="13"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="6" t="s">
         <v>63</v>
       </c>
@@ -1344,8 +1716,8 @@
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="15"/>
-      <c r="C31" s="16" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23" t="s">
         <v>64</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -1355,8 +1727,8 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="6" t="s">
         <v>66</v>
       </c>
@@ -1364,8 +1736,8 @@
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="6" t="s">
         <v>67</v>
       </c>
@@ -1373,8 +1745,8 @@
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="6" t="s">
         <v>68</v>
       </c>
@@ -1382,8 +1754,8 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="6" t="s">
         <v>69</v>
       </c>
@@ -1391,8 +1763,8 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="6" t="s">
         <v>70</v>
       </c>
@@ -1400,8 +1772,8 @@
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="6" t="s">
         <v>71</v>
       </c>
@@ -1409,8 +1781,8 @@
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="15"/>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="22"/>
+      <c r="C38" s="24" t="s">
         <v>72</v>
       </c>
       <c r="D38" s="6" t="s">
@@ -1420,8 +1792,8 @@
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="15"/>
-      <c r="C39" s="17"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="6" t="s">
         <v>74</v>
       </c>
@@ -1429,8 +1801,8 @@
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="15"/>
-      <c r="C40" s="17"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="24"/>
       <c r="D40" s="6" t="s">
         <v>75</v>
       </c>
@@ -1438,8 +1810,8 @@
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="15"/>
-      <c r="C41" s="17"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="24"/>
       <c r="D41" s="6" t="s">
         <v>76</v>
       </c>
@@ -1447,8 +1819,8 @@
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="15"/>
-      <c r="C42" s="17"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="24"/>
       <c r="D42" s="6" t="s">
         <v>77</v>
       </c>
@@ -1456,8 +1828,8 @@
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="15"/>
-      <c r="C43" s="17"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="24"/>
       <c r="D43" s="6" t="s">
         <v>78</v>
       </c>
@@ -1465,8 +1837,8 @@
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="15"/>
-      <c r="C44" s="17"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="24"/>
       <c r="D44" s="6" t="s">
         <v>79</v>
       </c>
@@ -1474,8 +1846,8 @@
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="15"/>
-      <c r="C45" s="17"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="24"/>
       <c r="D45" s="6" t="s">
         <v>80</v>
       </c>
@@ -1483,8 +1855,8 @@
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="15"/>
-      <c r="C46" s="17"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="24"/>
       <c r="D46" s="6" t="s">
         <v>81</v>
       </c>
@@ -1492,8 +1864,8 @@
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="15"/>
-      <c r="C47" s="17"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="24"/>
       <c r="D47" s="6" t="s">
         <v>82</v>
       </c>
@@ -1501,8 +1873,8 @@
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="15"/>
-      <c r="C48" s="17"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="24"/>
       <c r="D48" s="6" t="s">
         <v>83</v>
       </c>
@@ -1510,8 +1882,8 @@
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="15"/>
-      <c r="C49" s="17"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="24"/>
       <c r="D49" s="6" t="s">
         <v>84</v>
       </c>
@@ -1519,8 +1891,8 @@
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="15"/>
-      <c r="C50" s="17"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="24"/>
       <c r="D50" s="6" t="s">
         <v>85</v>
       </c>
@@ -1528,8 +1900,8 @@
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="15"/>
-      <c r="C51" s="17"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="24"/>
       <c r="D51" s="6" t="s">
         <v>86</v>
       </c>
@@ -1537,8 +1909,8 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="15"/>
-      <c r="C52" s="17"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="24"/>
       <c r="D52" s="6" t="s">
         <v>87</v>
       </c>
@@ -1546,8 +1918,8 @@
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="15"/>
-      <c r="C53" s="17"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="24"/>
       <c r="D53" s="6" t="s">
         <v>88</v>
       </c>
@@ -1555,10 +1927,10 @@
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="25" t="s">
         <v>90</v>
       </c>
       <c r="D54" s="6" t="s">
@@ -1568,8 +1940,8 @@
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="11"/>
-      <c r="C55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="25"/>
       <c r="D55" s="6" t="s">
         <v>91</v>
       </c>
@@ -1577,8 +1949,8 @@
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="11"/>
-      <c r="C56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="6" t="s">
         <v>93</v>
       </c>
@@ -1586,8 +1958,8 @@
       <c r="F56" s="6"/>
     </row>
     <row r="57" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="11"/>
-      <c r="C57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="6" t="s">
         <v>94</v>
       </c>
@@ -1595,8 +1967,8 @@
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="11"/>
-      <c r="C58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="6" t="s">
         <v>88</v>
       </c>
@@ -1604,8 +1976,8 @@
       <c r="F58" s="6"/>
     </row>
     <row r="59" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="11"/>
-      <c r="C59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="6" t="s">
         <v>95</v>
       </c>
@@ -1613,8 +1985,8 @@
       <c r="F59" s="6"/>
     </row>
     <row r="60" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="11"/>
-      <c r="C60" s="19" t="s">
+      <c r="B60" s="18"/>
+      <c r="C60" s="26" t="s">
         <v>96</v>
       </c>
       <c r="D60" s="6" t="s">
@@ -1624,8 +1996,8 @@
       <c r="F60" s="6"/>
     </row>
     <row r="61" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="11"/>
-      <c r="C61" s="19"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="26"/>
       <c r="D61" s="6" t="s">
         <v>98</v>
       </c>
@@ -1633,8 +2005,8 @@
       <c r="F61" s="6"/>
     </row>
     <row r="62" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="11"/>
-      <c r="C62" s="20" t="s">
+      <c r="B62" s="18"/>
+      <c r="C62" s="27" t="s">
         <v>102</v>
       </c>
       <c r="D62" s="6" t="s">
@@ -1644,8 +2016,8 @@
       <c r="F62" s="6"/>
     </row>
     <row r="63" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="11"/>
-      <c r="C63" s="20"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="27"/>
       <c r="D63" s="6" t="s">
         <v>100</v>
       </c>
@@ -1653,8 +2025,8 @@
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="11"/>
-      <c r="C64" s="20"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="27"/>
       <c r="D64" s="6" t="s">
         <v>106</v>
       </c>
@@ -1662,8 +2034,8 @@
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="11"/>
-      <c r="C65" s="20"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="6" t="s">
         <v>101</v>
       </c>
@@ -1671,8 +2043,8 @@
       <c r="F65" s="6"/>
     </row>
     <row r="66" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="11"/>
-      <c r="C66" s="21" t="s">
+      <c r="B66" s="18"/>
+      <c r="C66" s="28" t="s">
         <v>105</v>
       </c>
       <c r="D66" s="6" t="s">
@@ -1682,8 +2054,8 @@
       <c r="F66" s="6"/>
     </row>
     <row r="67" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="11"/>
-      <c r="C67" s="21"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="28"/>
       <c r="D67" s="6" t="s">
         <v>104</v>
       </c>
@@ -1691,7 +2063,7 @@
       <c r="F67" s="6"/>
     </row>
     <row r="68" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="11"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="8" t="s">
         <v>107</v>
       </c>
@@ -1702,7 +2074,7 @@
       <c r="F68" s="6"/>
     </row>
     <row r="69" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="20" t="s">
         <v>109</v>
       </c>
       <c r="C69" s="9" t="s">
@@ -1713,7 +2085,7 @@
       <c r="F69" s="6"/>
     </row>
     <row r="70" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="13"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="9" t="s">
         <v>111</v>
       </c>
@@ -1722,7 +2094,7 @@
       <c r="F70" s="6"/>
     </row>
     <row r="71" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="13"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="9" t="s">
         <v>112</v>
       </c>
@@ -1731,8 +2103,8 @@
       <c r="F71" s="6"/>
     </row>
     <row r="72" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="13"/>
-      <c r="C72" s="12" t="s">
+      <c r="B72" s="20"/>
+      <c r="C72" s="19" t="s">
         <v>113</v>
       </c>
       <c r="D72" s="6" t="s">
@@ -1742,8 +2114,8 @@
       <c r="F72" s="6"/>
     </row>
     <row r="73" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="13"/>
-      <c r="C73" s="12"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="6" t="s">
         <v>115</v>
       </c>
@@ -1751,8 +2123,8 @@
       <c r="F73" s="6"/>
     </row>
     <row r="74" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="13"/>
-      <c r="C74" s="12"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="19"/>
       <c r="D74" s="6" t="s">
         <v>116</v>
       </c>
@@ -1760,7 +2132,7 @@
       <c r="F74" s="6"/>
     </row>
     <row r="75" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="21" t="s">
         <v>117</v>
       </c>
       <c r="C75" s="9" t="s">
@@ -1773,7 +2145,7 @@
       <c r="F75" s="6"/>
     </row>
     <row r="76" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="14"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="9" t="s">
         <v>119</v>
       </c>
@@ -1784,7 +2156,7 @@
       <c r="F76" s="6"/>
     </row>
     <row r="77" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="14"/>
+      <c r="B77" s="21"/>
       <c r="C77" s="9" t="s">
         <v>120</v>
       </c>
@@ -1795,7 +2167,7 @@
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="14"/>
+      <c r="B78" s="21"/>
       <c r="C78" s="9" t="s">
         <v>121</v>
       </c>
@@ -1805,8 +2177,71 @@
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
     </row>
+    <row r="83" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="39"/>
+      <c r="C84" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="39"/>
+      <c r="C85" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="39"/>
+      <c r="C86" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="39"/>
+      <c r="C87" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="39"/>
+      <c r="C88" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="39"/>
+      <c r="C89" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="39"/>
+      <c r="C90" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="39"/>
+      <c r="C91" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="40"/>
+      <c r="C92" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="B83:B92"/>
     <mergeCell ref="B54:B68"/>
     <mergeCell ref="C72:C74"/>
     <mergeCell ref="B69:B74"/>
@@ -1828,14 +2263,924 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="D3" sqref="D3:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="16"/>
+    <col min="3" max="3" width="29.5" style="17" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="45" customWidth="1"/>
+    <col min="5" max="5" width="9" style="12"/>
+    <col min="6" max="6" width="68.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B3" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="36"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="36"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B6" s="36"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="36"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="36"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B9" s="36"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="36"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="36"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="2:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="36"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B13" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B14" s="37"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B15" s="37"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B16" s="37"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B17" s="37"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B18" s="37"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="37"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B20" s="37"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B21" s="37"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B22" s="37"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B23" s="37"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B24" s="37"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B25" s="37"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B26" s="37"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="37"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B28" s="37"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B29" s="37"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B30" s="37"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B31" s="37"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B32" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B33" s="34"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B34" s="34"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B35" s="34"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B36" s="34"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B37" s="34"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B38" s="34"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B39" s="34"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B40" s="34"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="34"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="34"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="34"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="34"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="34"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="34"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="34"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B48" s="34"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B49" s="34"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B50" s="34"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B51" s="34"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B52" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="D52" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B53" s="35"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B54" s="35"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B55" s="35"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B56" s="35"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B57" s="35"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B58" s="35"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B59" s="35"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B60" s="35"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B61" s="35"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B62" s="35"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B63" s="35"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="13"/>
+    </row>
+    <row r="64" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B64" s="35"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B65" s="35"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="13"/>
+    </row>
+    <row r="66" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B66" s="35"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="13"/>
+    </row>
+    <row r="67" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B67" s="35"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="F67" s="13"/>
+    </row>
+    <row r="68" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B68" s="35"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="13"/>
+    </row>
+    <row r="69" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B69" s="35"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B70" s="35"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="13"/>
+    </row>
+    <row r="71" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B71" s="35"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="13"/>
+    </row>
+    <row r="72" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B72" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="F72" s="13"/>
+    </row>
+    <row r="73" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B73" s="33"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="13"/>
+    </row>
+    <row r="74" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B74" s="33"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="13"/>
+    </row>
+    <row r="75" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B75" s="33"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="13"/>
+    </row>
+    <row r="76" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B76" s="33"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="13"/>
+    </row>
+    <row r="77" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B77" s="33"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F77" s="13"/>
+    </row>
+    <row r="78" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B78" s="33"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="13"/>
+    </row>
+    <row r="79" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B79" s="33"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="13"/>
+    </row>
+    <row r="80" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B80" s="33"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="13"/>
+    </row>
+    <row r="81" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B81" s="33"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="13"/>
+    </row>
+    <row r="82" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B82" s="33"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="F82" s="13"/>
+    </row>
+    <row r="83" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B83" s="33"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="13"/>
+    </row>
+    <row r="84" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B84" s="33"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="13"/>
+    </row>
+    <row r="85" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B85" s="33"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="13"/>
+    </row>
+    <row r="86" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B86" s="33"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="13"/>
+    </row>
+    <row r="87" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B87" s="33"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="F87" s="13"/>
+    </row>
+    <row r="88" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B88" s="33"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="13"/>
+    </row>
+    <row r="89" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B89" s="33"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="13"/>
+    </row>
+    <row r="90" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B90" s="33"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="13"/>
+    </row>
+    <row r="91" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B91" s="33"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="13"/>
+    </row>
+    <row r="92" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B92" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D92" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="E92" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="F92" s="13"/>
+    </row>
+    <row r="93" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B93" s="30"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="13"/>
+    </row>
+    <row r="94" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B94" s="30"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="13"/>
+    </row>
+    <row r="95" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B95" s="30"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="13"/>
+    </row>
+    <row r="96" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B96" s="30"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="13"/>
+    </row>
+    <row r="97" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B97" s="30"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="F97" s="13"/>
+    </row>
+    <row r="98" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B98" s="30"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="13"/>
+    </row>
+    <row r="99" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B99" s="30"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="13"/>
+    </row>
+    <row r="100" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B100" s="30"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="13"/>
+    </row>
+    <row r="101" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B101" s="30"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="13"/>
+    </row>
+    <row r="102" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B102" s="30"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F102" s="13"/>
+    </row>
+    <row r="103" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B103" s="30"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="13"/>
+    </row>
+    <row r="104" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B104" s="30"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="13"/>
+    </row>
+    <row r="105" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B105" s="30"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="13"/>
+    </row>
+    <row r="106" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B106" s="30"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="13"/>
+    </row>
+    <row r="107" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B107" s="30"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="F107" s="13"/>
+    </row>
+    <row r="108" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B108" s="30"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="13"/>
+    </row>
+    <row r="109" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B109" s="30"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="13"/>
+    </row>
+    <row r="110" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B110" s="30"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="13"/>
+    </row>
+    <row r="111" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B111" s="30"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="44"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="D13:D31"/>
+    <mergeCell ref="D32:D51"/>
+    <mergeCell ref="D52:D71"/>
+    <mergeCell ref="D72:D91"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="E57:E61"/>
+    <mergeCell ref="E62:E66"/>
+    <mergeCell ref="E67:E71"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="B32:B51"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="C13:C31"/>
+    <mergeCell ref="C32:C51"/>
+    <mergeCell ref="C52:C71"/>
+    <mergeCell ref="B72:B91"/>
+    <mergeCell ref="C72:C91"/>
+    <mergeCell ref="B52:B71"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B13:B31"/>
+    <mergeCell ref="E72:E76"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="E87:E91"/>
+    <mergeCell ref="B92:B111"/>
+    <mergeCell ref="C92:C111"/>
+    <mergeCell ref="E92:E96"/>
+    <mergeCell ref="E97:E101"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="E107:E111"/>
+    <mergeCell ref="D92:D111"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1846,8 +3191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1913,7 +3258,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>

--- a/redemption/redemption.xlsx
+++ b/redemption/redemption.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="学习池" sheetId="1" r:id="rId1"/>
@@ -786,7 +786,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,6 +839,15 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -1013,7 +1022,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1062,6 +1071,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1095,56 +1119,47 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1428,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F92"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1460,10 +1475,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1473,8 +1488,8 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="22"/>
-      <c r="C4" s="20"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="6" t="s">
         <v>38</v>
       </c>
@@ -1482,8 +1497,8 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="22"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="6" t="s">
         <v>39</v>
       </c>
@@ -1491,8 +1506,8 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="22"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="6" t="s">
         <v>40</v>
       </c>
@@ -1500,8 +1515,8 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="22"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="6" t="s">
         <v>41</v>
       </c>
@@ -1509,8 +1524,8 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="22"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="6" t="s">
         <v>42</v>
       </c>
@@ -1518,8 +1533,8 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="22"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="6" t="s">
         <v>43</v>
       </c>
@@ -1527,8 +1542,8 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="22"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="6" t="s">
         <v>44</v>
       </c>
@@ -1536,8 +1551,8 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="22"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="6" t="s">
         <v>45</v>
       </c>
@@ -1545,8 +1560,8 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="22"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="6" t="s">
         <v>46</v>
       </c>
@@ -1554,8 +1569,8 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="22"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="6" t="s">
         <v>47</v>
       </c>
@@ -1563,8 +1578,8 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="22"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="6" t="s">
         <v>48</v>
       </c>
@@ -1572,8 +1587,8 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="22"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="6" t="s">
         <v>49</v>
       </c>
@@ -1581,8 +1596,8 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="22"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="6" t="s">
         <v>50</v>
       </c>
@@ -1590,8 +1605,8 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="22"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="6" t="s">
         <v>51</v>
       </c>
@@ -1599,8 +1614,8 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="22"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="6" t="s">
         <v>52</v>
       </c>
@@ -1608,8 +1623,8 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="22"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="6" t="s">
         <v>53</v>
       </c>
@@ -1617,8 +1632,8 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="22"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="6" t="s">
         <v>54</v>
       </c>
@@ -1626,8 +1641,8 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="22"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="6" t="s">
         <v>55</v>
       </c>
@@ -1635,8 +1650,8 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="22"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="6" t="s">
         <v>56</v>
       </c>
@@ -1644,8 +1659,8 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="22"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="6" t="s">
         <v>57</v>
       </c>
@@ -1653,8 +1668,8 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="22"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="6" t="s">
         <v>58</v>
       </c>
@@ -1662,8 +1677,8 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="22"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="6" t="s">
         <v>59</v>
       </c>
@@ -1671,8 +1686,8 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="22"/>
-      <c r="C26" s="20"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="6" t="s">
         <v>60</v>
       </c>
@@ -1680,8 +1695,8 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="22"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="6" t="s">
         <v>61</v>
       </c>
@@ -1689,8 +1704,8 @@
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="22"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="6" t="s">
         <v>62</v>
       </c>
@@ -1698,8 +1713,8 @@
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="22"/>
-      <c r="C29" s="20"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="6" t="s">
         <v>129</v>
       </c>
@@ -1707,8 +1722,8 @@
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="22"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="6" t="s">
         <v>63</v>
       </c>
@@ -1716,8 +1731,8 @@
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="22"/>
-      <c r="C31" s="23" t="s">
+      <c r="B31" s="27"/>
+      <c r="C31" s="28" t="s">
         <v>64</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -1727,8 +1742,8 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="6" t="s">
         <v>66</v>
       </c>
@@ -1736,8 +1751,8 @@
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="6" t="s">
         <v>67</v>
       </c>
@@ -1745,8 +1760,8 @@
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="6" t="s">
         <v>68</v>
       </c>
@@ -1754,8 +1769,8 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6" t="s">
         <v>69</v>
       </c>
@@ -1763,8 +1778,8 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="6" t="s">
         <v>70</v>
       </c>
@@ -1772,8 +1787,8 @@
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="6" t="s">
         <v>71</v>
       </c>
@@ -1781,8 +1796,8 @@
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="22"/>
-      <c r="C38" s="24" t="s">
+      <c r="B38" s="27"/>
+      <c r="C38" s="29" t="s">
         <v>72</v>
       </c>
       <c r="D38" s="6" t="s">
@@ -1792,8 +1807,8 @@
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="22"/>
-      <c r="C39" s="24"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="29"/>
       <c r="D39" s="6" t="s">
         <v>74</v>
       </c>
@@ -1801,8 +1816,8 @@
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="22"/>
-      <c r="C40" s="24"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="29"/>
       <c r="D40" s="6" t="s">
         <v>75</v>
       </c>
@@ -1810,8 +1825,8 @@
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="22"/>
-      <c r="C41" s="24"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="29"/>
       <c r="D41" s="6" t="s">
         <v>76</v>
       </c>
@@ -1819,8 +1834,8 @@
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="22"/>
-      <c r="C42" s="24"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="29"/>
       <c r="D42" s="6" t="s">
         <v>77</v>
       </c>
@@ -1828,8 +1843,8 @@
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="22"/>
-      <c r="C43" s="24"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="29"/>
       <c r="D43" s="6" t="s">
         <v>78</v>
       </c>
@@ -1837,8 +1852,8 @@
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="22"/>
-      <c r="C44" s="24"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="29"/>
       <c r="D44" s="6" t="s">
         <v>79</v>
       </c>
@@ -1846,8 +1861,8 @@
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="22"/>
-      <c r="C45" s="24"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="29"/>
       <c r="D45" s="6" t="s">
         <v>80</v>
       </c>
@@ -1855,8 +1870,8 @@
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="22"/>
-      <c r="C46" s="24"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="29"/>
       <c r="D46" s="6" t="s">
         <v>81</v>
       </c>
@@ -1864,8 +1879,8 @@
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="22"/>
-      <c r="C47" s="24"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="29"/>
       <c r="D47" s="6" t="s">
         <v>82</v>
       </c>
@@ -1873,8 +1888,8 @@
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="22"/>
-      <c r="C48" s="24"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="29"/>
       <c r="D48" s="6" t="s">
         <v>83</v>
       </c>
@@ -1882,8 +1897,8 @@
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="22"/>
-      <c r="C49" s="24"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="29"/>
       <c r="D49" s="6" t="s">
         <v>84</v>
       </c>
@@ -1891,8 +1906,8 @@
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="22"/>
-      <c r="C50" s="24"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="29"/>
       <c r="D50" s="6" t="s">
         <v>85</v>
       </c>
@@ -1900,8 +1915,8 @@
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="22"/>
-      <c r="C51" s="24"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="29"/>
       <c r="D51" s="6" t="s">
         <v>86</v>
       </c>
@@ -1909,8 +1924,8 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="22"/>
-      <c r="C52" s="24"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="29"/>
       <c r="D52" s="6" t="s">
         <v>87</v>
       </c>
@@ -1918,8 +1933,8 @@
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="22"/>
-      <c r="C53" s="24"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="6" t="s">
         <v>88</v>
       </c>
@@ -1927,10 +1942,10 @@
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="30" t="s">
         <v>90</v>
       </c>
       <c r="D54" s="6" t="s">
@@ -1940,8 +1955,8 @@
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="18"/>
-      <c r="C55" s="25"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="30"/>
       <c r="D55" s="6" t="s">
         <v>91</v>
       </c>
@@ -1949,8 +1964,8 @@
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="18"/>
-      <c r="C56" s="25"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="30"/>
       <c r="D56" s="6" t="s">
         <v>93</v>
       </c>
@@ -1958,8 +1973,8 @@
       <c r="F56" s="6"/>
     </row>
     <row r="57" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="18"/>
-      <c r="C57" s="25"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="30"/>
       <c r="D57" s="6" t="s">
         <v>94</v>
       </c>
@@ -1967,8 +1982,8 @@
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="18"/>
-      <c r="C58" s="25"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="30"/>
       <c r="D58" s="6" t="s">
         <v>88</v>
       </c>
@@ -1976,17 +1991,17 @@
       <c r="F58" s="6"/>
     </row>
     <row r="59" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="18"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="6" t="s">
+      <c r="B59" s="23"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
     </row>
     <row r="60" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="18"/>
-      <c r="C60" s="26" t="s">
+      <c r="B60" s="23"/>
+      <c r="C60" s="31" t="s">
         <v>96</v>
       </c>
       <c r="D60" s="6" t="s">
@@ -1996,8 +2011,8 @@
       <c r="F60" s="6"/>
     </row>
     <row r="61" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="18"/>
-      <c r="C61" s="26"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="31"/>
       <c r="D61" s="6" t="s">
         <v>98</v>
       </c>
@@ -2005,8 +2020,8 @@
       <c r="F61" s="6"/>
     </row>
     <row r="62" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="18"/>
-      <c r="C62" s="27" t="s">
+      <c r="B62" s="23"/>
+      <c r="C62" s="32" t="s">
         <v>102</v>
       </c>
       <c r="D62" s="6" t="s">
@@ -2016,8 +2031,8 @@
       <c r="F62" s="6"/>
     </row>
     <row r="63" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="18"/>
-      <c r="C63" s="27"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="32"/>
       <c r="D63" s="6" t="s">
         <v>100</v>
       </c>
@@ -2025,8 +2040,8 @@
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="18"/>
-      <c r="C64" s="27"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="32"/>
       <c r="D64" s="6" t="s">
         <v>106</v>
       </c>
@@ -2034,8 +2049,8 @@
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="18"/>
-      <c r="C65" s="27"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="32"/>
       <c r="D65" s="6" t="s">
         <v>101</v>
       </c>
@@ -2043,8 +2058,8 @@
       <c r="F65" s="6"/>
     </row>
     <row r="66" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="18"/>
-      <c r="C66" s="28" t="s">
+      <c r="B66" s="23"/>
+      <c r="C66" s="33" t="s">
         <v>105</v>
       </c>
       <c r="D66" s="6" t="s">
@@ -2054,8 +2069,8 @@
       <c r="F66" s="6"/>
     </row>
     <row r="67" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="18"/>
-      <c r="C67" s="28"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="33"/>
       <c r="D67" s="6" t="s">
         <v>104</v>
       </c>
@@ -2063,7 +2078,7 @@
       <c r="F67" s="6"/>
     </row>
     <row r="68" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="18"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="8" t="s">
         <v>107</v>
       </c>
@@ -2074,7 +2089,7 @@
       <c r="F68" s="6"/>
     </row>
     <row r="69" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="25" t="s">
         <v>109</v>
       </c>
       <c r="C69" s="9" t="s">
@@ -2085,7 +2100,7 @@
       <c r="F69" s="6"/>
     </row>
     <row r="70" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="20"/>
+      <c r="B70" s="25"/>
       <c r="C70" s="9" t="s">
         <v>111</v>
       </c>
@@ -2094,7 +2109,7 @@
       <c r="F70" s="6"/>
     </row>
     <row r="71" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="20"/>
+      <c r="B71" s="25"/>
       <c r="C71" s="9" t="s">
         <v>112</v>
       </c>
@@ -2103,8 +2118,8 @@
       <c r="F71" s="6"/>
     </row>
     <row r="72" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="20"/>
-      <c r="C72" s="19" t="s">
+      <c r="B72" s="25"/>
+      <c r="C72" s="24" t="s">
         <v>113</v>
       </c>
       <c r="D72" s="6" t="s">
@@ -2114,8 +2129,8 @@
       <c r="F72" s="6"/>
     </row>
     <row r="73" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="20"/>
-      <c r="C73" s="19"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="24"/>
       <c r="D73" s="6" t="s">
         <v>115</v>
       </c>
@@ -2123,8 +2138,8 @@
       <c r="F73" s="6"/>
     </row>
     <row r="74" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="20"/>
-      <c r="C74" s="19"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="24"/>
       <c r="D74" s="6" t="s">
         <v>116</v>
       </c>
@@ -2132,7 +2147,7 @@
       <c r="F74" s="6"/>
     </row>
     <row r="75" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="26" t="s">
         <v>117</v>
       </c>
       <c r="C75" s="9" t="s">
@@ -2145,7 +2160,7 @@
       <c r="F75" s="6"/>
     </row>
     <row r="76" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="21"/>
+      <c r="B76" s="26"/>
       <c r="C76" s="9" t="s">
         <v>119</v>
       </c>
@@ -2156,7 +2171,7 @@
       <c r="F76" s="6"/>
     </row>
     <row r="77" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="21"/>
+      <c r="B77" s="26"/>
       <c r="C77" s="9" t="s">
         <v>120</v>
       </c>
@@ -2167,7 +2182,7 @@
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="21"/>
+      <c r="B78" s="26"/>
       <c r="C78" s="9" t="s">
         <v>121</v>
       </c>
@@ -2178,7 +2193,7 @@
       <c r="F78" s="6"/>
     </row>
     <row r="83" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="38" t="s">
+      <c r="B83" s="20" t="s">
         <v>161</v>
       </c>
       <c r="C83" s="11" t="s">
@@ -2186,71 +2201,71 @@
       </c>
     </row>
     <row r="84" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="39"/>
+      <c r="B84" s="21"/>
       <c r="C84" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="39"/>
+      <c r="B85" s="21"/>
       <c r="C85" s="11" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="39"/>
+      <c r="B86" s="21"/>
       <c r="C86" s="11" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="39"/>
+      <c r="B87" s="21"/>
       <c r="C87" s="11" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="39"/>
+      <c r="B88" s="21"/>
       <c r="C88" s="11" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="39"/>
+      <c r="B89" s="21"/>
       <c r="C89" s="11" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="39"/>
+      <c r="B90" s="21"/>
       <c r="C90" s="11" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="91" spans="2:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="39"/>
+      <c r="B91" s="21"/>
       <c r="C91" s="11" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="40"/>
+      <c r="B92" s="22"/>
       <c r="C92" s="11" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B3:B53"/>
+    <mergeCell ref="C3:C30"/>
+    <mergeCell ref="C31:C37"/>
+    <mergeCell ref="C38:C53"/>
+    <mergeCell ref="C54:C59"/>
     <mergeCell ref="B83:B92"/>
     <mergeCell ref="B54:B68"/>
     <mergeCell ref="C72:C74"/>
     <mergeCell ref="B69:B74"/>
     <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B3:B53"/>
-    <mergeCell ref="C3:C30"/>
-    <mergeCell ref="C31:C37"/>
-    <mergeCell ref="C38:C53"/>
-    <mergeCell ref="C54:C59"/>
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="C62:C65"/>
     <mergeCell ref="C66:C67"/>
@@ -2265,15 +2280,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9" style="16"/>
     <col min="3" max="3" width="29.5" style="17" customWidth="1"/>
-    <col min="4" max="4" width="29.5" style="45" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="19" customWidth="1"/>
     <col min="5" max="5" width="9" style="12"/>
     <col min="6" max="6" width="68.375" customWidth="1"/>
   </cols>
@@ -2285,7 +2300,7 @@
       <c r="C2" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="18" t="s">
         <v>171</v>
       </c>
       <c r="E2" s="14" t="s">
@@ -2296,855 +2311,871 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="37" t="s">
         <v>138</v>
       </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="36"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="36"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="36"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="29"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="36"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="29"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="36"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="29" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="37" t="s">
         <v>139</v>
       </c>
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="36"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="29"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B10" s="36"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="29"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B11" s="36"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="29"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="2:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="36"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="29"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="37" t="s">
         <v>140</v>
       </c>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="37"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="29"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="37"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="29"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="37"/>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B16" s="37"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="29"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="37"/>
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B17" s="37"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="29"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B18" s="37"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="29" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="37" t="s">
         <v>141</v>
       </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B19" s="37"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="29"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B20" s="37"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="29"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B21" s="37"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B22" s="37"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="29" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="37" t="s">
         <v>142</v>
       </c>
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B23" s="37"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="29"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="13"/>
     </row>
     <row r="24" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B24" s="37"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="29"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B25" s="37"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="29"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B26" s="37"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="29"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="37"/>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="37"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="29" t="s">
+      <c r="B27" s="44"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="37" t="s">
         <v>143</v>
       </c>
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B28" s="37"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="29"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="37"/>
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B29" s="37"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="29"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="37"/>
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B30" s="37"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="29"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="37"/>
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B31" s="37"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="29"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="37"/>
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="37" t="s">
         <v>144</v>
       </c>
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B33" s="34"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="29"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="37"/>
       <c r="F33" s="13"/>
     </row>
     <row r="34" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B34" s="34"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="29"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="37"/>
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B35" s="34"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="29"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="37"/>
       <c r="F35" s="13"/>
     </row>
     <row r="36" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B36" s="34"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="29"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="37"/>
       <c r="F36" s="13"/>
     </row>
     <row r="37" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="34"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="29" t="s">
+      <c r="B37" s="38"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="37" t="s">
         <v>145</v>
       </c>
       <c r="F37" s="13"/>
     </row>
     <row r="38" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B38" s="34"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="29"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="37"/>
       <c r="F38" s="13"/>
     </row>
     <row r="39" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B39" s="34"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="29"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="37"/>
       <c r="F39" s="13"/>
     </row>
     <row r="40" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B40" s="34"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="29"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="37"/>
       <c r="F40" s="13"/>
     </row>
     <row r="41" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="34"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="29"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="37"/>
       <c r="F41" s="13"/>
     </row>
     <row r="42" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="34"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="29" t="s">
+      <c r="B42" s="38"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="37" t="s">
         <v>146</v>
       </c>
       <c r="F42" s="13"/>
     </row>
     <row r="43" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="34"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="29"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="37"/>
       <c r="F43" s="13"/>
     </row>
     <row r="44" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="34"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="29"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="37"/>
       <c r="F44" s="13"/>
     </row>
     <row r="45" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="34"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="29"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="37"/>
       <c r="F45" s="13"/>
     </row>
     <row r="46" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="34"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="29"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="37"/>
       <c r="F46" s="13"/>
     </row>
     <row r="47" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="34"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="29" t="s">
+      <c r="B47" s="38"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="37" t="s">
         <v>147</v>
       </c>
       <c r="F47" s="13"/>
     </row>
     <row r="48" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B48" s="34"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="29"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="37"/>
       <c r="F48" s="13"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B49" s="34"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="29"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="37"/>
       <c r="F49" s="13"/>
     </row>
     <row r="50" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B50" s="34"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="29"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="37"/>
       <c r="F50" s="13"/>
     </row>
     <row r="51" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B51" s="34"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="29"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="37"/>
       <c r="F51" s="13"/>
     </row>
     <row r="52" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="D52" s="42" t="s">
+      <c r="D52" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E52" s="37" t="s">
         <v>148</v>
       </c>
       <c r="F52" s="13"/>
     </row>
     <row r="53" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B53" s="35"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="29"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="37"/>
       <c r="F53" s="13"/>
     </row>
     <row r="54" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B54" s="35"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="29"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="37"/>
       <c r="F54" s="13"/>
     </row>
     <row r="55" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B55" s="35"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="29"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="37"/>
       <c r="F55" s="13"/>
     </row>
     <row r="56" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B56" s="35"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="29"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="37"/>
       <c r="F56" s="13"/>
     </row>
     <row r="57" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B57" s="35"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="29" t="s">
+      <c r="B57" s="42"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="37" t="s">
         <v>151</v>
       </c>
       <c r="F57" s="13"/>
     </row>
     <row r="58" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B58" s="35"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="29"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="37"/>
       <c r="F58" s="13"/>
     </row>
     <row r="59" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B59" s="35"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="29"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="37"/>
       <c r="F59" s="13"/>
     </row>
     <row r="60" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B60" s="35"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="29"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="37"/>
       <c r="F60" s="13"/>
     </row>
     <row r="61" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B61" s="35"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="29"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="37"/>
       <c r="F61" s="13"/>
     </row>
     <row r="62" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B62" s="35"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="29" t="s">
+      <c r="B62" s="42"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="37" t="s">
         <v>150</v>
       </c>
       <c r="F62" s="13"/>
     </row>
     <row r="63" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B63" s="35"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="29"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="37"/>
       <c r="F63" s="13"/>
     </row>
     <row r="64" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B64" s="35"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="29"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="37"/>
       <c r="F64" s="13"/>
     </row>
     <row r="65" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B65" s="35"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="29"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="37"/>
       <c r="F65" s="13"/>
     </row>
     <row r="66" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B66" s="35"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="29"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="37"/>
       <c r="F66" s="13"/>
     </row>
     <row r="67" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B67" s="35"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="29" t="s">
+      <c r="B67" s="42"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="37" t="s">
         <v>149</v>
       </c>
       <c r="F67" s="13"/>
     </row>
     <row r="68" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B68" s="35"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="29"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="37"/>
       <c r="F68" s="13"/>
     </row>
     <row r="69" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B69" s="35"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="29"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="37"/>
       <c r="F69" s="13"/>
     </row>
     <row r="70" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B70" s="35"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="29"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="37"/>
       <c r="F70" s="13"/>
     </row>
     <row r="71" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B71" s="35"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="29"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="37"/>
       <c r="F71" s="13"/>
     </row>
     <row r="72" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="C72" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="D72" s="42" t="s">
+      <c r="D72" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="E72" s="29" t="s">
+      <c r="E72" s="37" t="s">
         <v>153</v>
       </c>
       <c r="F72" s="13"/>
     </row>
     <row r="73" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B73" s="33"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="29"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="37"/>
       <c r="F73" s="13"/>
     </row>
     <row r="74" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B74" s="33"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="29"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="37"/>
       <c r="F74" s="13"/>
     </row>
     <row r="75" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B75" s="33"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="29"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="37"/>
       <c r="F75" s="13"/>
     </row>
     <row r="76" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B76" s="33"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="29"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="37"/>
       <c r="F76" s="13"/>
     </row>
     <row r="77" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B77" s="33"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="29" t="s">
+      <c r="B77" s="41"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="37" t="s">
         <v>154</v>
       </c>
       <c r="F77" s="13"/>
     </row>
     <row r="78" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B78" s="33"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="29"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="37"/>
       <c r="F78" s="13"/>
     </row>
     <row r="79" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B79" s="33"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="29"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="37"/>
       <c r="F79" s="13"/>
     </row>
     <row r="80" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B80" s="33"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="29"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="37"/>
       <c r="F80" s="13"/>
     </row>
     <row r="81" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B81" s="33"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="29"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="37"/>
       <c r="F81" s="13"/>
     </row>
     <row r="82" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B82" s="33"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="29" t="s">
+      <c r="B82" s="41"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="37" t="s">
         <v>155</v>
       </c>
       <c r="F82" s="13"/>
     </row>
     <row r="83" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B83" s="33"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="29"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="37"/>
       <c r="F83" s="13"/>
     </row>
     <row r="84" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B84" s="33"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="29"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="37"/>
       <c r="F84" s="13"/>
     </row>
     <row r="85" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B85" s="33"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="29"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="37"/>
       <c r="F85" s="13"/>
     </row>
     <row r="86" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B86" s="33"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="29"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="37"/>
       <c r="F86" s="13"/>
     </row>
     <row r="87" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B87" s="33"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="43"/>
-      <c r="E87" s="29" t="s">
+      <c r="B87" s="41"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="37" t="s">
         <v>156</v>
       </c>
       <c r="F87" s="13"/>
     </row>
     <row r="88" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B88" s="33"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="29"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="37"/>
       <c r="F88" s="13"/>
     </row>
     <row r="89" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B89" s="33"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="43"/>
-      <c r="E89" s="29"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="37"/>
       <c r="F89" s="13"/>
     </row>
     <row r="90" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B90" s="33"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="43"/>
-      <c r="E90" s="29"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="37"/>
       <c r="F90" s="13"/>
     </row>
     <row r="91" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B91" s="33"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="29"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="37"/>
       <c r="F91" s="13"/>
     </row>
     <row r="92" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B92" s="30" t="s">
+      <c r="B92" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="C92" s="31" t="s">
+      <c r="C92" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="D92" s="42" t="s">
+      <c r="D92" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="E92" s="29" t="s">
+      <c r="E92" s="37" t="s">
         <v>157</v>
       </c>
       <c r="F92" s="13"/>
     </row>
     <row r="93" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B93" s="30"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="43"/>
-      <c r="E93" s="29"/>
+      <c r="B93" s="45"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="37"/>
       <c r="F93" s="13"/>
     </row>
     <row r="94" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B94" s="30"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="29"/>
+      <c r="B94" s="45"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="37"/>
       <c r="F94" s="13"/>
     </row>
     <row r="95" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B95" s="30"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="29"/>
+      <c r="B95" s="45"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="37"/>
       <c r="F95" s="13"/>
     </row>
     <row r="96" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B96" s="30"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="29"/>
+      <c r="B96" s="45"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="37"/>
       <c r="F96" s="13"/>
     </row>
     <row r="97" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B97" s="30"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="29" t="s">
+      <c r="B97" s="45"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="37" t="s">
         <v>158</v>
       </c>
       <c r="F97" s="13"/>
     </row>
     <row r="98" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B98" s="30"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="29"/>
+      <c r="B98" s="45"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="37"/>
       <c r="F98" s="13"/>
     </row>
     <row r="99" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B99" s="30"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="29"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="37"/>
       <c r="F99" s="13"/>
     </row>
     <row r="100" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B100" s="30"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="29"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="37"/>
       <c r="F100" s="13"/>
     </row>
     <row r="101" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B101" s="30"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="43"/>
-      <c r="E101" s="29"/>
+      <c r="B101" s="45"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="37"/>
       <c r="F101" s="13"/>
     </row>
     <row r="102" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B102" s="30"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="43"/>
-      <c r="E102" s="29" t="s">
+      <c r="B102" s="45"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="37" t="s">
         <v>159</v>
       </c>
       <c r="F102" s="13"/>
     </row>
     <row r="103" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B103" s="30"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="29"/>
+      <c r="B103" s="45"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="37"/>
       <c r="F103" s="13"/>
     </row>
     <row r="104" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B104" s="30"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="29"/>
+      <c r="B104" s="45"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="37"/>
       <c r="F104" s="13"/>
     </row>
     <row r="105" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B105" s="30"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="43"/>
-      <c r="E105" s="29"/>
+      <c r="B105" s="45"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="37"/>
       <c r="F105" s="13"/>
     </row>
     <row r="106" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B106" s="30"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="29"/>
+      <c r="B106" s="45"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="37"/>
       <c r="F106" s="13"/>
     </row>
     <row r="107" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B107" s="30"/>
-      <c r="C107" s="32"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="29" t="s">
+      <c r="B107" s="45"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="37" t="s">
         <v>160</v>
       </c>
       <c r="F107" s="13"/>
     </row>
     <row r="108" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B108" s="30"/>
-      <c r="C108" s="32"/>
-      <c r="D108" s="43"/>
-      <c r="E108" s="29"/>
+      <c r="B108" s="45"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="37"/>
       <c r="F108" s="13"/>
     </row>
     <row r="109" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B109" s="30"/>
-      <c r="C109" s="32"/>
-      <c r="D109" s="43"/>
-      <c r="E109" s="29"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="37"/>
       <c r="F109" s="13"/>
     </row>
     <row r="110" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B110" s="30"/>
-      <c r="C110" s="32"/>
-      <c r="D110" s="43"/>
-      <c r="E110" s="29"/>
+      <c r="B110" s="45"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="37"/>
       <c r="F110" s="13"/>
     </row>
     <row r="111" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B111" s="30"/>
-      <c r="C111" s="32"/>
-      <c r="D111" s="44"/>
-      <c r="E111" s="29"/>
+      <c r="B111" s="45"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="37"/>
       <c r="F111" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="D13:D31"/>
-    <mergeCell ref="D32:D51"/>
-    <mergeCell ref="D52:D71"/>
-    <mergeCell ref="D72:D91"/>
+    <mergeCell ref="E72:E76"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="E87:E91"/>
+    <mergeCell ref="B92:B111"/>
+    <mergeCell ref="C92:C111"/>
+    <mergeCell ref="E92:E96"/>
+    <mergeCell ref="E97:E101"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="E107:E111"/>
+    <mergeCell ref="D92:D111"/>
+    <mergeCell ref="B72:B91"/>
+    <mergeCell ref="C72:C91"/>
+    <mergeCell ref="B52:B71"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B13:B31"/>
+    <mergeCell ref="B32:B51"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="C13:C31"/>
+    <mergeCell ref="C32:C51"/>
+    <mergeCell ref="C52:C71"/>
     <mergeCell ref="E52:E56"/>
     <mergeCell ref="E57:E61"/>
     <mergeCell ref="E62:E66"/>
@@ -3159,27 +3190,11 @@
     <mergeCell ref="E37:E41"/>
     <mergeCell ref="E42:E46"/>
     <mergeCell ref="E47:E51"/>
-    <mergeCell ref="B32:B51"/>
-    <mergeCell ref="C3:C12"/>
-    <mergeCell ref="C13:C31"/>
-    <mergeCell ref="C32:C51"/>
-    <mergeCell ref="C52:C71"/>
-    <mergeCell ref="B72:B91"/>
-    <mergeCell ref="C72:C91"/>
-    <mergeCell ref="B52:B71"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="B13:B31"/>
-    <mergeCell ref="E72:E76"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="E82:E86"/>
-    <mergeCell ref="E87:E91"/>
-    <mergeCell ref="B92:B111"/>
-    <mergeCell ref="C92:C111"/>
-    <mergeCell ref="E92:E96"/>
-    <mergeCell ref="E97:E101"/>
-    <mergeCell ref="E102:E106"/>
-    <mergeCell ref="E107:E111"/>
-    <mergeCell ref="D92:D111"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="D13:D31"/>
+    <mergeCell ref="D32:D51"/>
+    <mergeCell ref="D52:D71"/>
+    <mergeCell ref="D72:D91"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3191,8 +3206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3259,9 +3274,9 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">

--- a/redemption/redemption.xlsx
+++ b/redemption/redemption.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="185">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -779,6 +779,10 @@
   <si>
     <t>Android开发艺术探索
 算法第四版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片的处理，二次采样，缩放</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1077,6 +1081,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1092,24 +1117,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1119,6 +1129,18 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1128,38 +1150,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1441,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F92"/>
+  <dimension ref="B2:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1475,10 +1479,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="23" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1488,17 +1492,17 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="27"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="27"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="6" t="s">
         <v>39</v>
       </c>
@@ -1506,17 +1510,17 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="27"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="27"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="6" t="s">
         <v>41</v>
       </c>
@@ -1524,8 +1528,8 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="27"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="6" t="s">
         <v>42</v>
       </c>
@@ -1533,8 +1537,8 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="27"/>
-      <c r="C9" s="25"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="6" t="s">
         <v>43</v>
       </c>
@@ -1542,17 +1546,17 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="27"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="6" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="27"/>
-      <c r="C11" s="25"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="6" t="s">
         <v>45</v>
       </c>
@@ -1560,8 +1564,8 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="27"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="6" t="s">
         <v>46</v>
       </c>
@@ -1569,8 +1573,8 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="27"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="6" t="s">
         <v>47</v>
       </c>
@@ -1578,17 +1582,17 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="27"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="6" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="27"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="6" t="s">
         <v>49</v>
       </c>
@@ -1596,8 +1600,8 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="27"/>
-      <c r="C16" s="25"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="6" t="s">
         <v>50</v>
       </c>
@@ -1605,8 +1609,8 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="27"/>
-      <c r="C17" s="25"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="6" t="s">
         <v>51</v>
       </c>
@@ -1614,8 +1618,8 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="27"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="6" t="s">
         <v>52</v>
       </c>
@@ -1623,8 +1627,8 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="27"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="6" t="s">
         <v>53</v>
       </c>
@@ -1632,8 +1636,8 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="27"/>
-      <c r="C20" s="25"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="6" t="s">
         <v>54</v>
       </c>
@@ -1641,8 +1645,8 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="27"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="6" t="s">
         <v>55</v>
       </c>
@@ -1650,8 +1654,8 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="27"/>
-      <c r="C22" s="25"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="6" t="s">
         <v>56</v>
       </c>
@@ -1659,8 +1663,8 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="27"/>
-      <c r="C23" s="25"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="6" t="s">
         <v>57</v>
       </c>
@@ -1668,8 +1672,8 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="27"/>
-      <c r="C24" s="25"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="6" t="s">
         <v>58</v>
       </c>
@@ -1677,8 +1681,8 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="27"/>
-      <c r="C25" s="25"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="6" t="s">
         <v>59</v>
       </c>
@@ -1686,8 +1690,8 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="27"/>
-      <c r="C26" s="25"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="6" t="s">
         <v>60</v>
       </c>
@@ -1695,8 +1699,8 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="27"/>
-      <c r="C27" s="25"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="6" t="s">
         <v>61</v>
       </c>
@@ -1704,8 +1708,8 @@
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="27"/>
-      <c r="C28" s="25"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="6" t="s">
         <v>62</v>
       </c>
@@ -1713,8 +1717,8 @@
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="27"/>
-      <c r="C29" s="25"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
       <c r="D29" s="6" t="s">
         <v>129</v>
       </c>
@@ -1722,553 +1726,562 @@
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="27"/>
-      <c r="C30" s="25"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="6" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="27"/>
-      <c r="C31" s="28" t="s">
-        <v>64</v>
-      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="24" t="s">
+        <v>64</v>
+      </c>
       <c r="D32" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="24"/>
       <c r="D33" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="27"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="6" t="s">
+      <c r="B34" s="22"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="22"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="27"/>
-      <c r="C38" s="29" t="s">
-        <v>72</v>
-      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="24"/>
       <c r="D38" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="27"/>
-      <c r="C39" s="29"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="25" t="s">
+        <v>72</v>
+      </c>
       <c r="D39" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="27"/>
-      <c r="C40" s="29"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="27"/>
-      <c r="C41" s="29"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="27"/>
-      <c r="C42" s="29"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="27"/>
-      <c r="C43" s="29"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="27"/>
-      <c r="C44" s="29"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="27"/>
-      <c r="C45" s="29"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="27"/>
-      <c r="C46" s="29"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="27"/>
-      <c r="C47" s="29"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="27"/>
-      <c r="C48" s="29"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="27"/>
-      <c r="C49" s="29"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="27"/>
-      <c r="C50" s="29"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="27"/>
-      <c r="C51" s="29"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="27"/>
-      <c r="C52" s="29"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="27"/>
-      <c r="C53" s="29"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>90</v>
-      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="25"/>
       <c r="D54" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="23"/>
-      <c r="C55" s="30"/>
+      <c r="B55" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>90</v>
+      </c>
       <c r="D55" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="23"/>
-      <c r="C56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="26"/>
       <c r="D56" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
     </row>
     <row r="57" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="23"/>
-      <c r="C57" s="30"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="26"/>
       <c r="D57" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="23"/>
-      <c r="C58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="26"/>
       <c r="D58" s="6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
     </row>
     <row r="59" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="23"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="47" t="s">
+      <c r="B59" s="30"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="30"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-    </row>
-    <row r="60" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="23"/>
-      <c r="C60" s="31" t="s">
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+    </row>
+    <row r="61" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="30"/>
+      <c r="C61" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D61" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="23"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
     </row>
     <row r="62" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="23"/>
-      <c r="C62" s="32" t="s">
-        <v>102</v>
-      </c>
+      <c r="B62" s="30"/>
+      <c r="C62" s="33"/>
       <c r="D62" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
     </row>
     <row r="63" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="23"/>
-      <c r="C63" s="32"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="34" t="s">
+        <v>102</v>
+      </c>
       <c r="D63" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="23"/>
-      <c r="C64" s="32"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="34"/>
       <c r="D64" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="23"/>
-      <c r="C65" s="32"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="34"/>
       <c r="D65" s="6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
     </row>
     <row r="66" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="23"/>
-      <c r="C66" s="33" t="s">
-        <v>105</v>
-      </c>
+      <c r="B66" s="30"/>
+      <c r="C66" s="34"/>
       <c r="D66" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
     </row>
     <row r="67" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="23"/>
-      <c r="C67" s="33"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="35" t="s">
+        <v>105</v>
+      </c>
       <c r="D67" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
     </row>
     <row r="68" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="23"/>
-      <c r="C68" s="8" t="s">
-        <v>107</v>
-      </c>
+      <c r="B68" s="30"/>
+      <c r="C68" s="35"/>
       <c r="D68" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
     </row>
     <row r="69" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D69" s="6"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
     </row>
     <row r="70" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="25"/>
+      <c r="B70" s="23" t="s">
+        <v>109</v>
+      </c>
       <c r="C70" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
     </row>
     <row r="71" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="25"/>
+      <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
     </row>
     <row r="72" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="25"/>
-      <c r="C72" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>114</v>
-      </c>
+      <c r="B72" s="23"/>
+      <c r="C72" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
     </row>
     <row r="73" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="25"/>
-      <c r="C73" s="24"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="31" t="s">
+        <v>113</v>
+      </c>
       <c r="D73" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
     </row>
     <row r="74" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="25"/>
-      <c r="C74" s="24"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="31"/>
       <c r="D74" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
     </row>
     <row r="75" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>118</v>
-      </c>
+      <c r="B75" s="23"/>
+      <c r="C75" s="31"/>
       <c r="D75" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
     </row>
     <row r="76" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="26"/>
+      <c r="B76" s="32" t="s">
+        <v>117</v>
+      </c>
       <c r="C76" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
     </row>
     <row r="77" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="26"/>
+      <c r="B77" s="32"/>
       <c r="C77" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="26"/>
+      <c r="B78" s="32"/>
       <c r="C78" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="83" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="20" t="s">
+    <row r="79" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="32"/>
+      <c r="C79" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="84" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C84" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="21"/>
-      <c r="C84" s="11" t="s">
+    <row r="85" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="28"/>
+      <c r="C85" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="85" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="21"/>
-      <c r="C85" s="11" t="s">
+    <row r="86" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="28"/>
+      <c r="C86" s="11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="86" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="21"/>
-      <c r="C86" s="11" t="s">
+    <row r="87" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="28"/>
+      <c r="C87" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="2:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="21"/>
-      <c r="C87" s="11" t="s">
+    <row r="88" spans="2:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="28"/>
+      <c r="C88" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="21"/>
-      <c r="C88" s="11" t="s">
+    <row r="89" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="28"/>
+      <c r="C89" s="11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="89" spans="2:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="21"/>
-      <c r="C89" s="11" t="s">
+    <row r="90" spans="2:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="28"/>
+      <c r="C90" s="11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="90" spans="2:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="21"/>
-      <c r="C90" s="11" t="s">
+    <row r="91" spans="2:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="28"/>
+      <c r="C91" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="91" spans="2:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="21"/>
-      <c r="C91" s="11" t="s">
+    <row r="92" spans="2:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="28"/>
+      <c r="C92" s="11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="92" spans="2:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="22"/>
-      <c r="C92" s="11" t="s">
+    <row r="93" spans="2:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="29"/>
+      <c r="C93" s="11" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B3:B53"/>
-    <mergeCell ref="C3:C30"/>
-    <mergeCell ref="C31:C37"/>
-    <mergeCell ref="C38:C53"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="B83:B92"/>
-    <mergeCell ref="B54:B68"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B84:B93"/>
+    <mergeCell ref="B55:B69"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B3:B54"/>
+    <mergeCell ref="C3:C31"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="C39:C54"/>
+    <mergeCell ref="C55:C60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2311,871 +2324,855 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>138</v>
       </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="43"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="43"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="37"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="36"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="43"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="43"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="37"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="43"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="37" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="36" t="s">
         <v>139</v>
       </c>
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="43"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="37"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B10" s="43"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="37"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B11" s="43"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="37"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="2:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="43"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="36" t="s">
         <v>140</v>
       </c>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="44"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="37"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="44"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="37"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B16" s="44"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="37"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B17" s="44"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="37"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B18" s="44"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="37" t="s">
+      <c r="B18" s="46"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="36" t="s">
         <v>141</v>
       </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B19" s="44"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="37"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B20" s="44"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="37"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B21" s="44"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="37"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B22" s="44"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="37" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="36" t="s">
         <v>142</v>
       </c>
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B23" s="44"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="37"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="13"/>
     </row>
     <row r="24" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B24" s="44"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="37"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B25" s="44"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="37"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="36"/>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B26" s="44"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="37"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="44"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="37" t="s">
+      <c r="B27" s="46"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="36" t="s">
         <v>143</v>
       </c>
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B28" s="44"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="37"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B29" s="44"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="37"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="36"/>
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B30" s="44"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="37"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="36"/>
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B31" s="44"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="37"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="36"/>
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="36" t="s">
         <v>144</v>
       </c>
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B33" s="38"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="37"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="36"/>
       <c r="F33" s="13"/>
     </row>
     <row r="34" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B34" s="38"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="37"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="36"/>
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B35" s="38"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="37"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="36"/>
       <c r="F35" s="13"/>
     </row>
     <row r="36" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B36" s="38"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="37"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="36"/>
       <c r="F36" s="13"/>
     </row>
     <row r="37" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="38"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="37" t="s">
+      <c r="B37" s="47"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="36" t="s">
         <v>145</v>
       </c>
       <c r="F37" s="13"/>
     </row>
     <row r="38" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B38" s="38"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="37"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="13"/>
     </row>
     <row r="39" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B39" s="38"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="37"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="36"/>
       <c r="F39" s="13"/>
     </row>
     <row r="40" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B40" s="38"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="37"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="36"/>
       <c r="F40" s="13"/>
     </row>
     <row r="41" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="38"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="37"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="36"/>
       <c r="F41" s="13"/>
     </row>
     <row r="42" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="38"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="37" t="s">
+      <c r="B42" s="47"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="36" t="s">
         <v>146</v>
       </c>
       <c r="F42" s="13"/>
     </row>
     <row r="43" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="38"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="37"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="36"/>
       <c r="F43" s="13"/>
     </row>
     <row r="44" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="38"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="37"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="36"/>
       <c r="F44" s="13"/>
     </row>
     <row r="45" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="38"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="37"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="36"/>
       <c r="F45" s="13"/>
     </row>
     <row r="46" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="38"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="37"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="36"/>
       <c r="F46" s="13"/>
     </row>
     <row r="47" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="38"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="37" t="s">
+      <c r="B47" s="47"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="36" t="s">
         <v>147</v>
       </c>
       <c r="F47" s="13"/>
     </row>
     <row r="48" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B48" s="38"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="37"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="36"/>
       <c r="F48" s="13"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B49" s="38"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="37"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="36"/>
       <c r="F49" s="13"/>
     </row>
     <row r="50" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B50" s="38"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="37"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="36"/>
       <c r="F50" s="13"/>
     </row>
     <row r="51" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B51" s="38"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="37"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="36"/>
       <c r="F51" s="13"/>
     </row>
     <row r="52" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="D52" s="34" t="s">
+      <c r="D52" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="E52" s="37" t="s">
+      <c r="E52" s="36" t="s">
         <v>148</v>
       </c>
       <c r="F52" s="13"/>
     </row>
     <row r="53" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B53" s="42"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="37"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="36"/>
       <c r="F53" s="13"/>
     </row>
     <row r="54" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B54" s="42"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="37"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="36"/>
       <c r="F54" s="13"/>
     </row>
     <row r="55" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B55" s="42"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="37"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="36"/>
       <c r="F55" s="13"/>
     </row>
     <row r="56" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B56" s="42"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="37"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="36"/>
       <c r="F56" s="13"/>
     </row>
     <row r="57" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B57" s="42"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="37" t="s">
+      <c r="B57" s="44"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="36" t="s">
         <v>151</v>
       </c>
       <c r="F57" s="13"/>
     </row>
     <row r="58" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B58" s="42"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="37"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="36"/>
       <c r="F58" s="13"/>
     </row>
     <row r="59" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B59" s="42"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="37"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="36"/>
       <c r="F59" s="13"/>
     </row>
     <row r="60" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B60" s="42"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="37"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="36"/>
       <c r="F60" s="13"/>
     </row>
     <row r="61" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B61" s="42"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="37"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="36"/>
       <c r="F61" s="13"/>
     </row>
     <row r="62" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B62" s="42"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="37" t="s">
+      <c r="B62" s="44"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="36" t="s">
         <v>150</v>
       </c>
       <c r="F62" s="13"/>
     </row>
     <row r="63" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B63" s="42"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="37"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="36"/>
       <c r="F63" s="13"/>
     </row>
     <row r="64" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B64" s="42"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="37"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="36"/>
       <c r="F64" s="13"/>
     </row>
     <row r="65" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B65" s="42"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="37"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="36"/>
       <c r="F65" s="13"/>
     </row>
     <row r="66" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B66" s="42"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="37"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="36"/>
       <c r="F66" s="13"/>
     </row>
     <row r="67" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B67" s="42"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="37" t="s">
+      <c r="B67" s="44"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="36" t="s">
         <v>149</v>
       </c>
       <c r="F67" s="13"/>
     </row>
     <row r="68" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B68" s="42"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="37"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="36"/>
       <c r="F68" s="13"/>
     </row>
     <row r="69" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B69" s="42"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="37"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="36"/>
       <c r="F69" s="13"/>
     </row>
     <row r="70" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B70" s="42"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="37"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="36"/>
       <c r="F70" s="13"/>
     </row>
     <row r="71" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B71" s="42"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="37"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="36"/>
       <c r="F71" s="13"/>
     </row>
     <row r="72" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B72" s="41" t="s">
+      <c r="B72" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="C72" s="39" t="s">
+      <c r="C72" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="D72" s="34" t="s">
+      <c r="D72" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="E72" s="37" t="s">
+      <c r="E72" s="36" t="s">
         <v>153</v>
       </c>
       <c r="F72" s="13"/>
     </row>
     <row r="73" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B73" s="41"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="37"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="36"/>
       <c r="F73" s="13"/>
     </row>
     <row r="74" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B74" s="41"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="37"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="36"/>
       <c r="F74" s="13"/>
     </row>
     <row r="75" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B75" s="41"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="37"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="36"/>
       <c r="F75" s="13"/>
     </row>
     <row r="76" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B76" s="41"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="37"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="36"/>
       <c r="F76" s="13"/>
     </row>
     <row r="77" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B77" s="41"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="37" t="s">
+      <c r="B77" s="43"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="36" t="s">
         <v>154</v>
       </c>
       <c r="F77" s="13"/>
     </row>
     <row r="78" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B78" s="41"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="37"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="36"/>
       <c r="F78" s="13"/>
     </row>
     <row r="79" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B79" s="41"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="37"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="36"/>
       <c r="F79" s="13"/>
     </row>
     <row r="80" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B80" s="41"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="37"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="36"/>
       <c r="F80" s="13"/>
     </row>
     <row r="81" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B81" s="41"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="37"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="36"/>
       <c r="F81" s="13"/>
     </row>
     <row r="82" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B82" s="41"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="37" t="s">
+      <c r="B82" s="43"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="36" t="s">
         <v>155</v>
       </c>
       <c r="F82" s="13"/>
     </row>
     <row r="83" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B83" s="41"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="37"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="36"/>
       <c r="F83" s="13"/>
     </row>
     <row r="84" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B84" s="41"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="37"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="36"/>
       <c r="F84" s="13"/>
     </row>
     <row r="85" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B85" s="41"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="37"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="36"/>
       <c r="F85" s="13"/>
     </row>
     <row r="86" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B86" s="41"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="37"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="36"/>
       <c r="F86" s="13"/>
     </row>
     <row r="87" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B87" s="41"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="37" t="s">
+      <c r="B87" s="43"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="36" t="s">
         <v>156</v>
       </c>
       <c r="F87" s="13"/>
     </row>
     <row r="88" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B88" s="41"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="37"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="36"/>
       <c r="F88" s="13"/>
     </row>
     <row r="89" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B89" s="41"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="37"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="36"/>
       <c r="F89" s="13"/>
     </row>
     <row r="90" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B90" s="41"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="37"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="36"/>
       <c r="F90" s="13"/>
     </row>
     <row r="91" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B91" s="41"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="37"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="36"/>
       <c r="F91" s="13"/>
     </row>
     <row r="92" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B92" s="45" t="s">
+      <c r="B92" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C92" s="39" t="s">
+      <c r="C92" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="D92" s="34" t="s">
+      <c r="D92" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="E92" s="37" t="s">
+      <c r="E92" s="36" t="s">
         <v>157</v>
       </c>
       <c r="F92" s="13"/>
     </row>
     <row r="93" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B93" s="45"/>
-      <c r="C93" s="40"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="37"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="36"/>
       <c r="F93" s="13"/>
     </row>
     <row r="94" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B94" s="45"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="37"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="36"/>
       <c r="F94" s="13"/>
     </row>
     <row r="95" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B95" s="45"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="37"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="36"/>
       <c r="F95" s="13"/>
     </row>
     <row r="96" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B96" s="45"/>
-      <c r="C96" s="40"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="37"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="36"/>
       <c r="F96" s="13"/>
     </row>
     <row r="97" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B97" s="45"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="37" t="s">
+      <c r="B97" s="37"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="36" t="s">
         <v>158</v>
       </c>
       <c r="F97" s="13"/>
     </row>
     <row r="98" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B98" s="45"/>
-      <c r="C98" s="40"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="37"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="36"/>
       <c r="F98" s="13"/>
     </row>
     <row r="99" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B99" s="45"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="37"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="36"/>
       <c r="F99" s="13"/>
     </row>
     <row r="100" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B100" s="45"/>
-      <c r="C100" s="40"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="37"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="36"/>
       <c r="F100" s="13"/>
     </row>
     <row r="101" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B101" s="45"/>
-      <c r="C101" s="40"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="37"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="36"/>
       <c r="F101" s="13"/>
     </row>
     <row r="102" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B102" s="45"/>
-      <c r="C102" s="40"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="37" t="s">
+      <c r="B102" s="37"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="36" t="s">
         <v>159</v>
       </c>
       <c r="F102" s="13"/>
     </row>
     <row r="103" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B103" s="45"/>
-      <c r="C103" s="40"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="37"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="36"/>
       <c r="F103" s="13"/>
     </row>
     <row r="104" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B104" s="45"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="37"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="36"/>
       <c r="F104" s="13"/>
     </row>
     <row r="105" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B105" s="45"/>
-      <c r="C105" s="40"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="37"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="41"/>
+      <c r="E105" s="36"/>
       <c r="F105" s="13"/>
     </row>
     <row r="106" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B106" s="45"/>
-      <c r="C106" s="40"/>
-      <c r="D106" s="35"/>
-      <c r="E106" s="37"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="36"/>
       <c r="F106" s="13"/>
     </row>
     <row r="107" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B107" s="45"/>
-      <c r="C107" s="40"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="37" t="s">
+      <c r="B107" s="37"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="36" t="s">
         <v>160</v>
       </c>
       <c r="F107" s="13"/>
     </row>
     <row r="108" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B108" s="45"/>
-      <c r="C108" s="40"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="37"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="36"/>
       <c r="F108" s="13"/>
     </row>
     <row r="109" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B109" s="45"/>
-      <c r="C109" s="40"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="37"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="36"/>
       <c r="F109" s="13"/>
     </row>
     <row r="110" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B110" s="45"/>
-      <c r="C110" s="40"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="37"/>
+      <c r="B110" s="37"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="41"/>
+      <c r="E110" s="36"/>
       <c r="F110" s="13"/>
     </row>
     <row r="111" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B111" s="45"/>
-      <c r="C111" s="40"/>
-      <c r="D111" s="36"/>
-      <c r="E111" s="37"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="42"/>
+      <c r="E111" s="36"/>
       <c r="F111" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E72:E76"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="E82:E86"/>
-    <mergeCell ref="E87:E91"/>
-    <mergeCell ref="B92:B111"/>
-    <mergeCell ref="C92:C111"/>
-    <mergeCell ref="E92:E96"/>
-    <mergeCell ref="E97:E101"/>
-    <mergeCell ref="E102:E106"/>
-    <mergeCell ref="E107:E111"/>
-    <mergeCell ref="D92:D111"/>
-    <mergeCell ref="B72:B91"/>
-    <mergeCell ref="C72:C91"/>
-    <mergeCell ref="B52:B71"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="B13:B31"/>
-    <mergeCell ref="B32:B51"/>
-    <mergeCell ref="C3:C12"/>
-    <mergeCell ref="C13:C31"/>
-    <mergeCell ref="C32:C51"/>
-    <mergeCell ref="C52:C71"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="D13:D31"/>
+    <mergeCell ref="D32:D51"/>
+    <mergeCell ref="D52:D71"/>
+    <mergeCell ref="D72:D91"/>
     <mergeCell ref="E52:E56"/>
     <mergeCell ref="E57:E61"/>
     <mergeCell ref="E62:E66"/>
@@ -3190,11 +3187,27 @@
     <mergeCell ref="E37:E41"/>
     <mergeCell ref="E42:E46"/>
     <mergeCell ref="E47:E51"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="D13:D31"/>
-    <mergeCell ref="D32:D51"/>
-    <mergeCell ref="D52:D71"/>
-    <mergeCell ref="D72:D91"/>
+    <mergeCell ref="B52:B71"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B13:B31"/>
+    <mergeCell ref="B32:B51"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="C13:C31"/>
+    <mergeCell ref="C32:C51"/>
+    <mergeCell ref="C52:C71"/>
+    <mergeCell ref="E72:E76"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="E87:E91"/>
+    <mergeCell ref="B92:B111"/>
+    <mergeCell ref="C92:C111"/>
+    <mergeCell ref="E92:E96"/>
+    <mergeCell ref="E97:E101"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="E107:E111"/>
+    <mergeCell ref="D92:D111"/>
+    <mergeCell ref="B72:B91"/>
+    <mergeCell ref="C72:C91"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/redemption/redemption.xlsx
+++ b/redemption/redemption.xlsx
@@ -1447,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1701,11 +1701,11 @@
     <row r="27" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="22"/>
       <c r="C27" s="23"/>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="28" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="22"/>
@@ -1970,11 +1970,11 @@
     <row r="56" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="30"/>
       <c r="C56" s="26"/>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
     </row>
     <row r="57" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="30"/>

--- a/redemption/redemption.xlsx
+++ b/redemption/redemption.xlsx
@@ -716,12 +716,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">深入理解Android源码3
-fragment 源码和使用
-android布局 绘制 事件传递 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">图解http
 wms view层源码 
 </t>
@@ -783,6 +777,12 @@
   </si>
   <si>
     <t>图片的处理，二次采样，缩放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">深入理解Android源码3
+fragment 源码和使用
+android布局 绘制 事件传递 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1087,12 +1087,39 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1102,67 +1129,40 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1447,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1479,10 +1479,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="27" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1492,8 +1492,8 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="21" t="s">
         <v>38</v>
       </c>
@@ -1501,8 +1501,8 @@
       <c r="F4" s="20"/>
     </row>
     <row r="5" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="6" t="s">
         <v>39</v>
       </c>
@@ -1510,8 +1510,8 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="21" t="s">
         <v>40</v>
       </c>
@@ -1519,8 +1519,8 @@
       <c r="F6" s="21"/>
     </row>
     <row r="7" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="6" t="s">
         <v>41</v>
       </c>
@@ -1528,8 +1528,8 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="6" t="s">
         <v>42</v>
       </c>
@@ -1537,8 +1537,8 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="6" t="s">
         <v>43</v>
       </c>
@@ -1546,8 +1546,8 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="21" t="s">
         <v>44</v>
       </c>
@@ -1555,8 +1555,8 @@
       <c r="F10" s="21"/>
     </row>
     <row r="11" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="6" t="s">
         <v>45</v>
       </c>
@@ -1564,8 +1564,8 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="6" t="s">
         <v>46</v>
       </c>
@@ -1573,8 +1573,8 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="6" t="s">
         <v>47</v>
       </c>
@@ -1582,8 +1582,8 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="21" t="s">
         <v>48</v>
       </c>
@@ -1591,8 +1591,8 @@
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="6" t="s">
         <v>49</v>
       </c>
@@ -1600,8 +1600,8 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="6" t="s">
         <v>50</v>
       </c>
@@ -1609,8 +1609,8 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="6" t="s">
         <v>51</v>
       </c>
@@ -1618,8 +1618,8 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="6" t="s">
         <v>52</v>
       </c>
@@ -1627,8 +1627,8 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="6" t="s">
         <v>53</v>
       </c>
@@ -1636,8 +1636,8 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="6" t="s">
         <v>54</v>
       </c>
@@ -1645,8 +1645,8 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="6" t="s">
         <v>55</v>
       </c>
@@ -1654,8 +1654,8 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="6" t="s">
         <v>56</v>
       </c>
@@ -1663,8 +1663,8 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="6" t="s">
         <v>57</v>
       </c>
@@ -1672,8 +1672,8 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="6" t="s">
         <v>58</v>
       </c>
@@ -1681,8 +1681,8 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="6" t="s">
         <v>59</v>
       </c>
@@ -1690,8 +1690,8 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="6" t="s">
         <v>60</v>
       </c>
@@ -1699,8 +1699,8 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="21" t="s">
         <v>61</v>
       </c>
@@ -1708,8 +1708,8 @@
       <c r="F27" s="21"/>
     </row>
     <row r="28" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="6" t="s">
         <v>62</v>
       </c>
@@ -1717,8 +1717,8 @@
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="6" t="s">
         <v>129</v>
       </c>
@@ -1726,17 +1726,17 @@
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="6" t="s">
         <v>63</v>
       </c>
@@ -1744,8 +1744,8 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="22"/>
-      <c r="C32" s="24" t="s">
+      <c r="B32" s="32"/>
+      <c r="C32" s="33" t="s">
         <v>64</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -1755,8 +1755,8 @@
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="22"/>
-      <c r="C33" s="24"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="6" t="s">
         <v>66</v>
       </c>
@@ -1764,8 +1764,8 @@
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="22"/>
-      <c r="C34" s="24"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="21" t="s">
         <v>67</v>
       </c>
@@ -1773,8 +1773,8 @@
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="22"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="6" t="s">
         <v>68</v>
       </c>
@@ -1782,8 +1782,8 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="22"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="6" t="s">
         <v>69</v>
       </c>
@@ -1791,8 +1791,8 @@
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="22"/>
-      <c r="C37" s="24"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="6" t="s">
         <v>70</v>
       </c>
@@ -1800,8 +1800,8 @@
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="22"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="6" t="s">
         <v>71</v>
       </c>
@@ -1809,8 +1809,8 @@
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="22"/>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="32"/>
+      <c r="C39" s="34" t="s">
         <v>72</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -1820,8 +1820,8 @@
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="22"/>
-      <c r="C40" s="25"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="6" t="s">
         <v>74</v>
       </c>
@@ -1829,8 +1829,8 @@
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="22"/>
-      <c r="C41" s="25"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="6" t="s">
         <v>75</v>
       </c>
@@ -1838,8 +1838,8 @@
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="22"/>
-      <c r="C42" s="25"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="6" t="s">
         <v>76</v>
       </c>
@@ -1847,8 +1847,8 @@
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="22"/>
-      <c r="C43" s="25"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="6" t="s">
         <v>77</v>
       </c>
@@ -1856,8 +1856,8 @@
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="22"/>
-      <c r="C44" s="25"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="6" t="s">
         <v>78</v>
       </c>
@@ -1865,8 +1865,8 @@
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="22"/>
-      <c r="C45" s="25"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="6" t="s">
         <v>79</v>
       </c>
@@ -1874,8 +1874,8 @@
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="22"/>
-      <c r="C46" s="25"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="6" t="s">
         <v>80</v>
       </c>
@@ -1883,8 +1883,8 @@
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="22"/>
-      <c r="C47" s="25"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="6" t="s">
         <v>81</v>
       </c>
@@ -1892,8 +1892,8 @@
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="22"/>
-      <c r="C48" s="25"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="6" t="s">
         <v>82</v>
       </c>
@@ -1901,8 +1901,8 @@
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="22"/>
-      <c r="C49" s="25"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="34"/>
       <c r="D49" s="6" t="s">
         <v>83</v>
       </c>
@@ -1910,8 +1910,8 @@
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="22"/>
-      <c r="C50" s="25"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="34"/>
       <c r="D50" s="6" t="s">
         <v>84</v>
       </c>
@@ -1919,8 +1919,8 @@
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="22"/>
-      <c r="C51" s="25"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="34"/>
       <c r="D51" s="6" t="s">
         <v>85</v>
       </c>
@@ -1928,8 +1928,8 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="22"/>
-      <c r="C52" s="25"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="34"/>
       <c r="D52" s="6" t="s">
         <v>86</v>
       </c>
@@ -1937,8 +1937,8 @@
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="22"/>
-      <c r="C53" s="25"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="6" t="s">
         <v>87</v>
       </c>
@@ -1946,8 +1946,8 @@
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="22"/>
-      <c r="C54" s="25"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="34"/>
       <c r="D54" s="6" t="s">
         <v>88</v>
       </c>
@@ -1955,10 +1955,10 @@
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="35" t="s">
         <v>90</v>
       </c>
       <c r="D55" s="6" t="s">
@@ -1968,8 +1968,8 @@
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="30"/>
-      <c r="C56" s="26"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="35"/>
       <c r="D56" s="21" t="s">
         <v>91</v>
       </c>
@@ -1977,8 +1977,8 @@
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="30"/>
-      <c r="C57" s="26"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="35"/>
       <c r="D57" s="6" t="s">
         <v>93</v>
       </c>
@@ -1986,8 +1986,8 @@
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="30"/>
-      <c r="C58" s="26"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="35"/>
       <c r="D58" s="6" t="s">
         <v>94</v>
       </c>
@@ -1995,8 +1995,8 @@
       <c r="F58" s="6"/>
     </row>
     <row r="59" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="30"/>
-      <c r="C59" s="26"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="35"/>
       <c r="D59" s="6" t="s">
         <v>88</v>
       </c>
@@ -2004,8 +2004,8 @@
       <c r="F59" s="6"/>
     </row>
     <row r="60" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="30"/>
-      <c r="C60" s="26"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="35"/>
       <c r="D60" s="21" t="s">
         <v>95</v>
       </c>
@@ -2013,8 +2013,8 @@
       <c r="F60" s="20"/>
     </row>
     <row r="61" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="30"/>
-      <c r="C61" s="33" t="s">
+      <c r="B61" s="25"/>
+      <c r="C61" s="29" t="s">
         <v>96</v>
       </c>
       <c r="D61" s="6" t="s">
@@ -2024,8 +2024,8 @@
       <c r="F61" s="6"/>
     </row>
     <row r="62" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="30"/>
-      <c r="C62" s="33"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="29"/>
       <c r="D62" s="6" t="s">
         <v>98</v>
       </c>
@@ -2033,8 +2033,8 @@
       <c r="F62" s="6"/>
     </row>
     <row r="63" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="30"/>
-      <c r="C63" s="34" t="s">
+      <c r="B63" s="25"/>
+      <c r="C63" s="30" t="s">
         <v>102</v>
       </c>
       <c r="D63" s="6" t="s">
@@ -2044,8 +2044,8 @@
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="30"/>
-      <c r="C64" s="34"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="30"/>
       <c r="D64" s="6" t="s">
         <v>100</v>
       </c>
@@ -2053,8 +2053,8 @@
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="30"/>
-      <c r="C65" s="34"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="30"/>
       <c r="D65" s="6" t="s">
         <v>106</v>
       </c>
@@ -2062,8 +2062,8 @@
       <c r="F65" s="6"/>
     </row>
     <row r="66" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="30"/>
-      <c r="C66" s="34"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="30"/>
       <c r="D66" s="6" t="s">
         <v>101</v>
       </c>
@@ -2071,8 +2071,8 @@
       <c r="F66" s="6"/>
     </row>
     <row r="67" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="30"/>
-      <c r="C67" s="35" t="s">
+      <c r="B67" s="25"/>
+      <c r="C67" s="31" t="s">
         <v>105</v>
       </c>
       <c r="D67" s="6" t="s">
@@ -2082,8 +2082,8 @@
       <c r="F67" s="6"/>
     </row>
     <row r="68" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="30"/>
-      <c r="C68" s="35"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="31"/>
       <c r="D68" s="6" t="s">
         <v>104</v>
       </c>
@@ -2091,7 +2091,7 @@
       <c r="F68" s="6"/>
     </row>
     <row r="69" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="30"/>
+      <c r="B69" s="25"/>
       <c r="C69" s="8" t="s">
         <v>107</v>
       </c>
@@ -2102,7 +2102,7 @@
       <c r="F69" s="6"/>
     </row>
     <row r="70" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="27" t="s">
         <v>109</v>
       </c>
       <c r="C70" s="9" t="s">
@@ -2113,7 +2113,7 @@
       <c r="F70" s="6"/>
     </row>
     <row r="71" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="23"/>
+      <c r="B71" s="27"/>
       <c r="C71" s="9" t="s">
         <v>111</v>
       </c>
@@ -2122,7 +2122,7 @@
       <c r="F71" s="6"/>
     </row>
     <row r="72" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="23"/>
+      <c r="B72" s="27"/>
       <c r="C72" s="9" t="s">
         <v>112</v>
       </c>
@@ -2131,8 +2131,8 @@
       <c r="F72" s="6"/>
     </row>
     <row r="73" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="23"/>
-      <c r="C73" s="31" t="s">
+      <c r="B73" s="27"/>
+      <c r="C73" s="26" t="s">
         <v>113</v>
       </c>
       <c r="D73" s="6" t="s">
@@ -2142,8 +2142,8 @@
       <c r="F73" s="6"/>
     </row>
     <row r="74" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="23"/>
-      <c r="C74" s="31"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="26"/>
       <c r="D74" s="6" t="s">
         <v>115</v>
       </c>
@@ -2151,8 +2151,8 @@
       <c r="F74" s="6"/>
     </row>
     <row r="75" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="23"/>
-      <c r="C75" s="31"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="26"/>
       <c r="D75" s="6" t="s">
         <v>116</v>
       </c>
@@ -2160,7 +2160,7 @@
       <c r="F75" s="6"/>
     </row>
     <row r="76" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="28" t="s">
         <v>117</v>
       </c>
       <c r="C76" s="9" t="s">
@@ -2173,7 +2173,7 @@
       <c r="F76" s="6"/>
     </row>
     <row r="77" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="32"/>
+      <c r="B77" s="28"/>
       <c r="C77" s="9" t="s">
         <v>119</v>
       </c>
@@ -2184,7 +2184,7 @@
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="32"/>
+      <c r="B78" s="28"/>
       <c r="C78" s="9" t="s">
         <v>120</v>
       </c>
@@ -2195,7 +2195,7 @@
       <c r="F78" s="6"/>
     </row>
     <row r="79" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="32"/>
+      <c r="B79" s="28"/>
       <c r="C79" s="9" t="s">
         <v>121</v>
       </c>
@@ -2206,7 +2206,7 @@
       <c r="F79" s="6"/>
     </row>
     <row r="84" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="22" t="s">
         <v>161</v>
       </c>
       <c r="C84" s="11" t="s">
@@ -2214,61 +2214,66 @@
       </c>
     </row>
     <row r="85" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="28"/>
+      <c r="B85" s="23"/>
       <c r="C85" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="28"/>
+      <c r="B86" s="23"/>
       <c r="C86" s="11" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="28"/>
+      <c r="B87" s="23"/>
       <c r="C87" s="11" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="28"/>
+      <c r="B88" s="23"/>
       <c r="C88" s="11" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="28"/>
+      <c r="B89" s="23"/>
       <c r="C89" s="11" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="28"/>
+      <c r="B90" s="23"/>
       <c r="C90" s="11" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="91" spans="2:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="28"/>
+      <c r="B91" s="23"/>
       <c r="C91" s="11" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="28"/>
+      <c r="B92" s="23"/>
       <c r="C92" s="11" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="93" spans="2:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="29"/>
+      <c r="B93" s="24"/>
       <c r="C93" s="11" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B3:B54"/>
+    <mergeCell ref="C3:C31"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="C39:C54"/>
+    <mergeCell ref="C55:C60"/>
     <mergeCell ref="B84:B93"/>
     <mergeCell ref="B55:B69"/>
     <mergeCell ref="C73:C75"/>
@@ -2277,11 +2282,6 @@
     <mergeCell ref="C61:C62"/>
     <mergeCell ref="C63:C66"/>
     <mergeCell ref="C67:C68"/>
-    <mergeCell ref="B3:B54"/>
-    <mergeCell ref="C3:C31"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="C39:C54"/>
-    <mergeCell ref="C55:C60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2293,7 +2293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F111"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C12"/>
     </sheetView>
   </sheetViews>
@@ -2324,855 +2324,871 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="41"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="41"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B6" s="41"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="41"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="41"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B9" s="41"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="41"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="41"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="2:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="41"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B13" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B14" s="42"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B15" s="42"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B16" s="42"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B17" s="42"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B18" s="42"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="42"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B20" s="42"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B21" s="42"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B22" s="42"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B23" s="42"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B24" s="42"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B25" s="42"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B26" s="42"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="42"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B28" s="42"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B29" s="42"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B30" s="42"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B31" s="42"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B32" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="45"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="45"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="45"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="45"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="45"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="45"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B10" s="45"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B11" s="45"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="2:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="45"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B13" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="46"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B16" s="46"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B17" s="46"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B18" s="46"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B19" s="46"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B20" s="46"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B21" s="46"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B22" s="46"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B23" s="46"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B24" s="46"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B25" s="46"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B26" s="46"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="46"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B28" s="46"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B29" s="46"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B30" s="46"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B31" s="46"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B32" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="38" t="s">
+      <c r="E32" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B33" s="43"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B34" s="43"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B35" s="43"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B36" s="43"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B37" s="43"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B38" s="43"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B39" s="43"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B40" s="43"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="43"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="43"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="43"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="43"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="43"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="43"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="43"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B48" s="43"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B49" s="43"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B50" s="43"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B51" s="43"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B52" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="D32" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="E32" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B33" s="47"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B34" s="47"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B35" s="47"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B36" s="47"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="47"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B38" s="47"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B39" s="47"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B40" s="47"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="47"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="47"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="47"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="47"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="13"/>
-    </row>
-    <row r="45" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="47"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="13"/>
-    </row>
-    <row r="46" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="47"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="13"/>
-    </row>
-    <row r="47" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="47"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="F47" s="13"/>
-    </row>
-    <row r="48" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B48" s="47"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="13"/>
-    </row>
-    <row r="49" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B49" s="47"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="13"/>
-    </row>
-    <row r="50" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B50" s="47"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B51" s="47"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="13"/>
-    </row>
-    <row r="52" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B52" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" s="38" t="s">
+      <c r="E52" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B53" s="40"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B54" s="40"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B55" s="40"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B56" s="40"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B57" s="40"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B58" s="40"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B59" s="40"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B60" s="40"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B61" s="40"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B62" s="40"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B63" s="40"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="13"/>
+    </row>
+    <row r="64" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B64" s="40"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B65" s="40"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="13"/>
+    </row>
+    <row r="66" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B66" s="40"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="13"/>
+    </row>
+    <row r="67" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B67" s="40"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="F67" s="13"/>
+    </row>
+    <row r="68" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B68" s="40"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="13"/>
+    </row>
+    <row r="69" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B69" s="40"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B70" s="40"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="13"/>
+    </row>
+    <row r="71" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B71" s="40"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="13"/>
+    </row>
+    <row r="72" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B72" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="D52" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="E52" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="F52" s="13"/>
-    </row>
-    <row r="53" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B53" s="44"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="13"/>
-    </row>
-    <row r="54" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B54" s="44"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="13"/>
-    </row>
-    <row r="55" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B55" s="44"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="56" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B56" s="44"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="13"/>
-    </row>
-    <row r="57" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B57" s="44"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="F57" s="13"/>
-    </row>
-    <row r="58" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B58" s="44"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="13"/>
-    </row>
-    <row r="59" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B59" s="44"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="13"/>
-    </row>
-    <row r="60" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B60" s="44"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="13"/>
-    </row>
-    <row r="61" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B61" s="44"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="13"/>
-    </row>
-    <row r="62" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B62" s="44"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="F62" s="13"/>
-    </row>
-    <row r="63" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B63" s="44"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="13"/>
-    </row>
-    <row r="64" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B64" s="44"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="13"/>
-    </row>
-    <row r="65" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B65" s="44"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="13"/>
-    </row>
-    <row r="66" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B66" s="44"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="13"/>
-    </row>
-    <row r="67" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B67" s="44"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="F67" s="13"/>
-    </row>
-    <row r="68" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B68" s="44"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="13"/>
-    </row>
-    <row r="69" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B69" s="44"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="13"/>
-    </row>
-    <row r="70" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B70" s="44"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="13"/>
-    </row>
-    <row r="71" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B71" s="44"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="13"/>
-    </row>
-    <row r="72" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B72" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="C72" s="38" t="s">
+      <c r="E72" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="F72" s="13"/>
+    </row>
+    <row r="73" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B73" s="47"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="13"/>
+    </row>
+    <row r="74" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B74" s="47"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="13"/>
+    </row>
+    <row r="75" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B75" s="47"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="13"/>
+    </row>
+    <row r="76" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B76" s="47"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="13"/>
+    </row>
+    <row r="77" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B77" s="47"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="F77" s="13"/>
+    </row>
+    <row r="78" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B78" s="47"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="13"/>
+    </row>
+    <row r="79" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B79" s="47"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="13"/>
+    </row>
+    <row r="80" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B80" s="47"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="13"/>
+    </row>
+    <row r="81" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B81" s="47"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="13"/>
+    </row>
+    <row r="82" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B82" s="47"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="F82" s="13"/>
+    </row>
+    <row r="83" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B83" s="47"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="13"/>
+    </row>
+    <row r="84" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B84" s="47"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="13"/>
+    </row>
+    <row r="85" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B85" s="47"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="13"/>
+    </row>
+    <row r="86" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B86" s="47"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="13"/>
+    </row>
+    <row r="87" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B87" s="47"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F87" s="13"/>
+    </row>
+    <row r="88" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B88" s="47"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="13"/>
+    </row>
+    <row r="89" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B89" s="47"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="13"/>
+    </row>
+    <row r="90" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B90" s="47"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="13"/>
+    </row>
+    <row r="91" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B91" s="47"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="13"/>
+    </row>
+    <row r="92" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B92" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="D72" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="E72" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="F72" s="13"/>
-    </row>
-    <row r="73" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B73" s="43"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="13"/>
-    </row>
-    <row r="74" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B74" s="43"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="13"/>
-    </row>
-    <row r="75" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B75" s="43"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="13"/>
-    </row>
-    <row r="76" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B76" s="43"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="13"/>
-    </row>
-    <row r="77" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B77" s="43"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="F77" s="13"/>
-    </row>
-    <row r="78" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B78" s="43"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="13"/>
-    </row>
-    <row r="79" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B79" s="43"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="13"/>
-    </row>
-    <row r="80" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B80" s="43"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="13"/>
-    </row>
-    <row r="81" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B81" s="43"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="13"/>
-    </row>
-    <row r="82" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B82" s="43"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="F82" s="13"/>
-    </row>
-    <row r="83" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B83" s="43"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="13"/>
-    </row>
-    <row r="84" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B84" s="43"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="13"/>
-    </row>
-    <row r="85" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B85" s="43"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="13"/>
-    </row>
-    <row r="86" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B86" s="43"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="13"/>
-    </row>
-    <row r="87" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B87" s="43"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="F87" s="13"/>
-    </row>
-    <row r="88" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B88" s="43"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="13"/>
-    </row>
-    <row r="89" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B89" s="43"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="41"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="13"/>
-    </row>
-    <row r="90" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B90" s="43"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="13"/>
-    </row>
-    <row r="91" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B91" s="43"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="13"/>
-    </row>
-    <row r="92" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B92" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C92" s="38" t="s">
+      <c r="D92" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="D92" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="E92" s="36" t="s">
+      <c r="E92" s="39" t="s">
         <v>157</v>
       </c>
       <c r="F92" s="13"/>
     </row>
     <row r="93" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B93" s="37"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="36"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="39"/>
       <c r="F93" s="13"/>
     </row>
     <row r="94" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B94" s="37"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="36"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="39"/>
       <c r="F94" s="13"/>
     </row>
     <row r="95" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B95" s="37"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="36"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="39"/>
       <c r="F95" s="13"/>
     </row>
     <row r="96" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B96" s="37"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="36"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="39"/>
       <c r="F96" s="13"/>
     </row>
     <row r="97" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B97" s="37"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="36" t="s">
+      <c r="B97" s="46"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="39" t="s">
         <v>158</v>
       </c>
       <c r="F97" s="13"/>
     </row>
     <row r="98" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B98" s="37"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="36"/>
+      <c r="B98" s="46"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="39"/>
       <c r="F98" s="13"/>
     </row>
     <row r="99" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B99" s="37"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="36"/>
+      <c r="B99" s="46"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="39"/>
       <c r="F99" s="13"/>
     </row>
     <row r="100" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B100" s="37"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="36"/>
+      <c r="B100" s="46"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="39"/>
       <c r="F100" s="13"/>
     </row>
     <row r="101" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B101" s="37"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="41"/>
-      <c r="E101" s="36"/>
+      <c r="B101" s="46"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="39"/>
       <c r="F101" s="13"/>
     </row>
     <row r="102" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B102" s="37"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="36" t="s">
+      <c r="B102" s="46"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="39" t="s">
         <v>159</v>
       </c>
       <c r="F102" s="13"/>
     </row>
     <row r="103" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B103" s="37"/>
-      <c r="C103" s="39"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="36"/>
+      <c r="B103" s="46"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="39"/>
       <c r="F103" s="13"/>
     </row>
     <row r="104" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B104" s="37"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="36"/>
+      <c r="B104" s="46"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="39"/>
       <c r="F104" s="13"/>
     </row>
     <row r="105" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B105" s="37"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="36"/>
+      <c r="B105" s="46"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="39"/>
       <c r="F105" s="13"/>
     </row>
     <row r="106" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B106" s="37"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="36"/>
+      <c r="B106" s="46"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="39"/>
       <c r="F106" s="13"/>
     </row>
     <row r="107" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B107" s="37"/>
-      <c r="C107" s="39"/>
-      <c r="D107" s="41"/>
-      <c r="E107" s="36" t="s">
+      <c r="B107" s="46"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="39" t="s">
         <v>160</v>
       </c>
       <c r="F107" s="13"/>
     </row>
     <row r="108" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B108" s="37"/>
-      <c r="C108" s="39"/>
-      <c r="D108" s="41"/>
-      <c r="E108" s="36"/>
+      <c r="B108" s="46"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="39"/>
       <c r="F108" s="13"/>
     </row>
     <row r="109" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B109" s="37"/>
-      <c r="C109" s="39"/>
-      <c r="D109" s="41"/>
-      <c r="E109" s="36"/>
+      <c r="B109" s="46"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="39"/>
       <c r="F109" s="13"/>
     </row>
     <row r="110" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B110" s="37"/>
-      <c r="C110" s="39"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="36"/>
+      <c r="B110" s="46"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="39"/>
       <c r="F110" s="13"/>
     </row>
     <row r="111" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B111" s="37"/>
-      <c r="C111" s="39"/>
-      <c r="D111" s="42"/>
-      <c r="E111" s="36"/>
+      <c r="B111" s="46"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="38"/>
+      <c r="E111" s="39"/>
       <c r="F111" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="D13:D31"/>
-    <mergeCell ref="D32:D51"/>
-    <mergeCell ref="D52:D71"/>
-    <mergeCell ref="D72:D91"/>
+    <mergeCell ref="E72:E76"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="E87:E91"/>
+    <mergeCell ref="B92:B111"/>
+    <mergeCell ref="C92:C111"/>
+    <mergeCell ref="E92:E96"/>
+    <mergeCell ref="E97:E101"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="E107:E111"/>
+    <mergeCell ref="D92:D111"/>
+    <mergeCell ref="B72:B91"/>
+    <mergeCell ref="C72:C91"/>
+    <mergeCell ref="B52:B71"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B13:B31"/>
+    <mergeCell ref="B32:B51"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="C13:C31"/>
+    <mergeCell ref="C32:C51"/>
+    <mergeCell ref="C52:C71"/>
     <mergeCell ref="E52:E56"/>
     <mergeCell ref="E57:E61"/>
     <mergeCell ref="E62:E66"/>
@@ -3187,27 +3203,11 @@
     <mergeCell ref="E37:E41"/>
     <mergeCell ref="E42:E46"/>
     <mergeCell ref="E47:E51"/>
-    <mergeCell ref="B52:B71"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="B13:B31"/>
-    <mergeCell ref="B32:B51"/>
-    <mergeCell ref="C3:C12"/>
-    <mergeCell ref="C13:C31"/>
-    <mergeCell ref="C32:C51"/>
-    <mergeCell ref="C52:C71"/>
-    <mergeCell ref="E72:E76"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="E82:E86"/>
-    <mergeCell ref="E87:E91"/>
-    <mergeCell ref="B92:B111"/>
-    <mergeCell ref="C92:C111"/>
-    <mergeCell ref="E92:E96"/>
-    <mergeCell ref="E97:E101"/>
-    <mergeCell ref="E102:E106"/>
-    <mergeCell ref="E107:E111"/>
-    <mergeCell ref="D92:D111"/>
-    <mergeCell ref="B72:B91"/>
-    <mergeCell ref="C72:C91"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="D13:D31"/>
+    <mergeCell ref="D32:D51"/>
+    <mergeCell ref="D52:D71"/>
+    <mergeCell ref="D72:D91"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3220,7 +3220,7 @@
   <dimension ref="C5:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3319,13 +3319,13 @@
     </row>
     <row r="9" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">

--- a/redemption/redemption.xlsx
+++ b/redemption/redemption.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -1447,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1593,7 +1593,7 @@
     <row r="15" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="32"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="21" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="6"/>
@@ -1979,7 +1979,7 @@
     <row r="57" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="25"/>
       <c r="C57" s="35"/>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="21" t="s">
         <v>93</v>
       </c>
       <c r="E57" s="6"/>
